--- a/hyperinsulinemia.xlsx
+++ b/hyperinsulinemia.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6538BCA3-3823-EA43-8916-9072C9A1706C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D25727-8B40-A544-8359-B6ECEE1B685E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4060" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{CB62793C-C18D-BB4B-9365-60C12FC29B2B}"/>
+    <workbookView xWindow="-5480" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{CB62793C-C18D-BB4B-9365-60C12FC29B2B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="clamp label" sheetId="1" r:id="rId1"/>
+    <sheet name="insulin measurement" sheetId="2" r:id="rId2"/>
+    <sheet name="insulin_glycemia" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="62">
   <si>
     <t>Compound</t>
   </si>
@@ -248,16 +250,109 @@
   <si>
     <t>m5</t>
   </si>
+  <si>
+    <t>T0 Before infusion</t>
+  </si>
+  <si>
+    <t>simple lineer regression equation</t>
+  </si>
+  <si>
+    <t>T1 After infusing insulin+Glucose 2.5h</t>
+  </si>
+  <si>
+    <t>T2 After infusing palmitate 30 mins</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>ng/ml</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>Blnk Corr</t>
+  </si>
+  <si>
+    <t>STD curve</t>
+  </si>
+  <si>
+    <t>Concentr</t>
+  </si>
+  <si>
+    <t>x = (y + 0.02753 ) / 0.1530</t>
+  </si>
+  <si>
+    <t>https://www.crystalchem.com/ultra-sensitive-mouse-insulin-elisa-kit.html</t>
+  </si>
+  <si>
+    <t>Vendor's link</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>simple linear regression equation</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>analyte</t>
+  </si>
+  <si>
+    <t>insulin</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>conc.</t>
+  </si>
+  <si>
+    <t>ng/mL</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>glycemia</t>
+  </si>
+  <si>
+    <t>basal</t>
+  </si>
+  <si>
+    <t>mg/dL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="174" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -311,8 +406,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,8 +465,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -514,80 +666,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,68 +803,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -678,6 +863,2018 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'insulin measurement'!$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Concentr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.8013221855803672E-2"/>
+                  <c:y val="0.47307606896996351"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'insulin measurement'!$C$40:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'insulin measurement'!$D$40:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9365</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9530000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A829-FA42-B62D-47C6A823DD2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="325173839"/>
+        <c:axId val="401709567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="325173839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401709567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="401709567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325173839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16686771197230479"/>
+                  <c:y val="0.46428593189254402"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'insulin measurement'!$C$46:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'insulin measurement'!$D$46:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.9365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9530000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-82CD-8C4C-B9B9-B8CEE8298A94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1138164144"/>
+        <c:axId val="1138527920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1138164144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138527920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1138527920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138164144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>151252</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B3E5FE4-C6D4-344A-84FF-D6828FEB0E80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9367308" y="7450667"/>
+          <a:ext cx="2975944" cy="2401358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>59267</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>132985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D291AEB-EE46-FF5D-35F6-88772144C366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12251267" y="6479682"/>
+          <a:ext cx="2827866" cy="3483103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13934</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510862</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>185652</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B14ED2-CB67-855D-6ADA-53B29DE0BE18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>664196</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>370359</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179427</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7218C1EA-9625-994F-8EF5-37F9BFE01FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238607</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>192424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>146628</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC789E0-D56C-A545-A402-4D86E7EFB12C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="10961"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6003637" y="192424"/>
+          <a:ext cx="4025900" cy="2747818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -999,8 +3196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2963D6E-92F1-B34C-AC14-7B49349C23B2}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="158" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,9 +3226,9 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1055,23 +3252,23 @@
       <c r="C3" s="1">
         <v>150</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="19">
         <v>10.68</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="45" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1086,37 +3283,37 @@
       <c r="D4" s="2">
         <v>6</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="4" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="28" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="4" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="22" t="s">
+      <c r="P4" s="35"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4" t="s">
+      <c r="S4" s="35"/>
+      <c r="T4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="4"/>
+      <c r="U4" s="35"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="20">
         <f>B4*B3</f>
         <v>7791.2999999999993</v>
       </c>
@@ -1128,43 +3325,43 @@
         <f>D4*D3</f>
         <v>64.08</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="5" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12" t="s">
+      <c r="M5" s="40"/>
+      <c r="N5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="31" t="s">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4" t="s">
+      <c r="S5" s="35"/>
+      <c r="T5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="4"/>
+      <c r="U5" s="35"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="21">
         <f>B5*6</f>
         <v>46747.799999999996</v>
       </c>
@@ -1176,328 +3373,328 @@
         <f>D5*16</f>
         <v>1025.28</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="32" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="7" t="s">
+      <c r="N6" s="49"/>
+      <c r="O6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="23" t="s">
+      <c r="Q6" s="50"/>
+      <c r="R6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="4">
         <v>28.5</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="5">
         <v>5.5787536300000003E-2</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
         <v>5.28372363E-2</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="10">
         <v>0.19467180519999999</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="14">
         <f>(1-I7)*$C$6/I7</f>
         <v>50267.697826064417</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="7">
         <f>(1-J7)*$C$6/J7</f>
         <v>53240.358602726541</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="7">
         <f>(1-K7)*$D$6/K7</f>
         <v>4241.4302919534639</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="8">
         <f>L7/$H7</f>
         <v>1763.7788710899795</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="8">
         <f t="shared" ref="P7:Q7" si="0">M7/$H7</f>
         <v>1868.0827579904048</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="23">
         <f t="shared" si="0"/>
         <v>148.82211550713907</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="22">
         <f>(L7-$B$6)</f>
         <v>3519.8978260644217</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="8">
         <f>(M7-$B$6)</f>
         <v>6492.5586027265454</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="8">
         <f>R7/$H7</f>
         <v>123.50518687945339</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="8">
         <f>S7/$H7</f>
         <v>227.80907377987879</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="4">
         <v>25</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="5">
         <v>5.4766491700000003E-2</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="5">
         <v>5.5634749900000002E-2</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="10">
         <v>0.2371127945</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="14">
         <f t="shared" ref="L8:L11" si="1">(1-I8)*$C$6/I8</f>
         <v>51260.240203609756</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="7">
         <f t="shared" ref="M8:M11" si="2">(1-J8)*$C$6/J8</f>
         <v>50413.901344724109</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="7">
         <f t="shared" ref="N8:N10" si="3">(1-K8)*$D$6/K8</f>
         <v>3298.7380360659536</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="8">
         <f t="shared" ref="O8:O11" si="4">L8/$H8</f>
         <v>2050.4096081443904</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="8">
         <f t="shared" ref="P8:P11" si="5">M8/$H8</f>
         <v>2016.5560537889644</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="Q8" s="23">
         <f t="shared" ref="Q8:Q11" si="6">N8/$H8</f>
         <v>131.94952144263814</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="22">
         <f t="shared" ref="R8:R11" si="7">(L8-$B$6)</f>
         <v>4512.4402036097599</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="8">
         <f>(M8-$B$6)</f>
         <v>3666.101344724113</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="8">
         <f t="shared" ref="T8:T11" si="8">R8/$H8</f>
         <v>180.4976081443904</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="8">
         <f t="shared" ref="U8:U11" si="9">S8/$H8</f>
         <v>146.64405378896453</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <v>3</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="4">
         <v>28.4</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="5">
         <v>5.3955606400000002E-2</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="5">
         <v>5.4436837100000003E-2</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="10">
         <v>0.18379338789999999</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="14">
         <f t="shared" si="1"/>
         <v>52075.252906285568</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="7">
         <f t="shared" si="2"/>
         <v>51588.643709298085</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="7">
         <f t="shared" si="3"/>
         <v>4553.157895479917</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="8">
         <f t="shared" si="4"/>
         <v>1833.6356657142808</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="8">
         <f t="shared" si="5"/>
         <v>1816.5015390597919</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="23">
         <f t="shared" si="6"/>
         <v>160.32246110844778</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="22">
         <f t="shared" si="7"/>
         <v>5327.4529062855727</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="8">
         <f>(M9-$B$6)</f>
         <v>4840.8437092980894</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="8">
         <f t="shared" si="8"/>
         <v>187.58636993963285</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="8">
         <f t="shared" si="9"/>
         <v>170.45224328514399</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <v>4</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="4">
         <v>25.1</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="5">
         <v>5.0760371800000002E-2</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="5">
         <v>5.5846535900000001E-2</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="10">
         <v>0.32212808580000002</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="14">
         <f t="shared" si="1"/>
         <v>55540.209730181683</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="7">
         <f t="shared" si="2"/>
         <v>50211.454357673065</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="7">
         <f t="shared" si="3"/>
         <v>2157.5533051237471</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="8">
         <f t="shared" si="4"/>
         <v>2212.7573597681944</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="8">
         <f t="shared" si="5"/>
         <v>2000.4563489112775</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q10" s="23">
         <f t="shared" si="6"/>
         <v>85.958299008914224</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="22">
         <f t="shared" si="7"/>
         <v>8792.4097301816873</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="8">
         <f>(M10-$B$6)</f>
         <v>3463.6543576730692</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="8">
         <f t="shared" si="8"/>
         <v>350.29520837377237</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="8">
         <f t="shared" si="9"/>
         <v>137.99419751685534</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="8">
+      <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="4">
         <v>25.5</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="5">
         <v>5.4612273199999999E-2</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="5">
         <v>5.6463182000000001E-2</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="10">
         <v>0.26383384050000003</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="15">
         <f t="shared" si="1"/>
         <v>51413.379888314194</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="16">
         <f t="shared" si="2"/>
         <v>49630.648684659682</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="16">
         <f>(1-K11)*$D$6/K11</f>
         <v>2860.802232881721</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="17">
         <f t="shared" si="4"/>
         <v>2016.2109760123212</v>
       </c>
-      <c r="P11" s="37">
+      <c r="P11" s="17">
         <f t="shared" si="5"/>
         <v>1946.2999484180268</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="24">
         <f t="shared" si="6"/>
         <v>112.1883228581067</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="22">
         <f t="shared" si="7"/>
         <v>4665.5798883141979</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="8">
         <f>(M11-$B$6)</f>
         <v>2882.8486846596861</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="8">
         <f t="shared" si="8"/>
         <v>182.96391718879207</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="8">
         <f t="shared" si="9"/>
         <v>113.0528895944975</v>
       </c>
@@ -1505,10 +3702,18 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
+      <c r="H13" s="1">
+        <f>AVERAGE(H7:H11)</f>
+        <v>26.5</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
+      <c r="H14" s="1">
+        <f>STDEV(H7:H11)</f>
+        <v>1.7902513789968149</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -1540,7 +3745,7 @@
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="21">
         <f>O7</f>
         <v>1763.7788710899795</v>
       </c>
@@ -1561,7 +3766,7 @@
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="21">
         <f t="shared" ref="D17:D20" si="10">O8</f>
         <v>2050.4096081443904</v>
       </c>
@@ -1582,7 +3787,7 @@
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="21">
         <f t="shared" si="10"/>
         <v>1833.6356657142808</v>
       </c>
@@ -1603,7 +3808,7 @@
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="21">
         <f>O10</f>
         <v>2212.7573597681944</v>
       </c>
@@ -1621,17 +3826,17 @@
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="26">
         <f t="shared" si="10"/>
         <v>2016.2109760123212</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1645,7 +3850,7 @@
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="21">
         <f>P7</f>
         <v>1868.0827579904048</v>
       </c>
@@ -1666,7 +3871,7 @@
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="21">
         <f t="shared" ref="D22:D25" si="11">P8</f>
         <v>2016.5560537889644</v>
       </c>
@@ -1687,7 +3892,7 @@
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="21">
         <f t="shared" si="11"/>
         <v>1816.5015390597919</v>
       </c>
@@ -1708,7 +3913,7 @@
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="21">
         <f t="shared" si="11"/>
         <v>2000.4563489112775</v>
       </c>
@@ -1726,17 +3931,17 @@
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="26">
         <f t="shared" si="11"/>
         <v>1946.2999484180268</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1750,7 +3955,7 @@
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="21">
         <f>Q7</f>
         <v>148.82211550713907</v>
       </c>
@@ -1771,7 +3976,7 @@
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="21">
         <f t="shared" ref="D27:D30" si="12">Q8</f>
         <v>131.94952144263814</v>
       </c>
@@ -1792,7 +3997,7 @@
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="21">
         <f t="shared" si="12"/>
         <v>160.32246110844778</v>
       </c>
@@ -1813,7 +4018,7 @@
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="21">
         <f t="shared" si="12"/>
         <v>85.958299008914224</v>
       </c>
@@ -1834,7 +4039,7 @@
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="21">
         <f t="shared" si="12"/>
         <v>112.1883228581067</v>
       </c>
@@ -1855,7 +4060,7 @@
       <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="21">
         <f>T7</f>
         <v>123.50518687945339</v>
       </c>
@@ -1876,7 +4081,7 @@
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="21">
         <f t="shared" ref="D32:D35" si="13">T8</f>
         <v>180.4976081443904</v>
       </c>
@@ -1897,7 +4102,7 @@
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="21">
         <f t="shared" si="13"/>
         <v>187.58636993963285</v>
       </c>
@@ -1918,7 +4123,7 @@
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="21">
         <f t="shared" si="13"/>
         <v>350.29520837377237</v>
       </c>
@@ -1936,14 +4141,14 @@
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="21">
         <f t="shared" si="13"/>
         <v>182.96391718879207</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -1960,7 +4165,7 @@
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="21">
         <f>U7</f>
         <v>227.80907377987879</v>
       </c>
@@ -1981,7 +4186,7 @@
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="21">
         <f t="shared" ref="D37:D40" si="14">U8</f>
         <v>146.64405378896453</v>
       </c>
@@ -2002,7 +4207,7 @@
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="21">
         <f t="shared" si="14"/>
         <v>170.45224328514399</v>
       </c>
@@ -2023,7 +4228,7 @@
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="21">
         <f t="shared" si="14"/>
         <v>137.99419751685534</v>
       </c>
@@ -2041,14 +4246,14 @@
       <c r="B40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="21">
         <f t="shared" si="14"/>
         <v>113.0528895944975</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -2065,7 +4270,7 @@
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="21">
         <f>Q7</f>
         <v>148.82211550713907</v>
       </c>
@@ -2086,7 +4291,7 @@
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="21">
         <f t="shared" ref="D42:D45" si="15">Q8</f>
         <v>131.94952144263814</v>
       </c>
@@ -2107,7 +4312,7 @@
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="21">
         <f t="shared" si="15"/>
         <v>160.32246110844778</v>
       </c>
@@ -2128,7 +4333,7 @@
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="21">
         <f t="shared" si="15"/>
         <v>85.958299008914224</v>
       </c>
@@ -2149,7 +4354,7 @@
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="21">
         <f t="shared" si="15"/>
         <v>112.1883228581067</v>
       </c>
@@ -2162,24 +4367,1773 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R5:S5"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="T5:U5"/>
     <mergeCell ref="R3:U3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:P5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="R5:S5"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08735C5-A93D-0B49-90FB-D90EC9C849F0}">
+  <dimension ref="A1:Z51"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="31"/>
+      <c r="X4">
+        <v>0.1588</v>
+      </c>
+      <c r="Y4">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J6" s="27"/>
+      <c r="K6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="28">
+        <v>1</v>
+      </c>
+      <c r="M7" s="28">
+        <v>2</v>
+      </c>
+      <c r="N7" s="28">
+        <v>3</v>
+      </c>
+      <c r="O7" s="28">
+        <v>4</v>
+      </c>
+      <c r="P7" s="28">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="28">
+        <v>1</v>
+      </c>
+      <c r="V7" s="28">
+        <v>2</v>
+      </c>
+      <c r="W7" s="28">
+        <v>3</v>
+      </c>
+      <c r="X7" s="28">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="28">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="27"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="29">
+        <v>1</v>
+      </c>
+      <c r="B8" s="29">
+        <v>2</v>
+      </c>
+      <c r="C8" s="29">
+        <v>3</v>
+      </c>
+      <c r="D8" s="29">
+        <v>4</v>
+      </c>
+      <c r="E8" s="29">
+        <v>5</v>
+      </c>
+      <c r="F8" s="29">
+        <v>6</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="27">
+        <v>0.3755</v>
+      </c>
+      <c r="M8" s="27">
+        <v>0.1865</v>
+      </c>
+      <c r="N8" s="27">
+        <v>8.0500000000000016E-2</v>
+      </c>
+      <c r="O8" s="27">
+        <v>5.8499999999999996E-2</v>
+      </c>
+      <c r="P8" s="27">
+        <v>7.2500000000000009E-2</v>
+      </c>
+      <c r="Q8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="27">
+        <v>0.3755</v>
+      </c>
+      <c r="V8" s="27">
+        <v>0.1865</v>
+      </c>
+      <c r="W8" s="27">
+        <v>8.0500000000000016E-2</v>
+      </c>
+      <c r="X8" s="27">
+        <v>5.8499999999999996E-2</v>
+      </c>
+      <c r="Y8" s="27">
+        <v>7.2500000000000009E-2</v>
+      </c>
+      <c r="Z8" s="27"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="27">
+        <v>3.3904999999999998</v>
+      </c>
+      <c r="M9" s="27">
+        <v>3.3815</v>
+      </c>
+      <c r="N9" s="27">
+        <v>3.4994999999999998</v>
+      </c>
+      <c r="O9" s="27">
+        <v>3.4744999999999999</v>
+      </c>
+      <c r="P9" s="27">
+        <v>3.4184999999999999</v>
+      </c>
+      <c r="Q9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="27">
+        <v>3.3904999999999998</v>
+      </c>
+      <c r="V9" s="27">
+        <v>3.3815</v>
+      </c>
+      <c r="W9" s="27">
+        <v>3.4994999999999998</v>
+      </c>
+      <c r="X9" s="27">
+        <v>3.4744999999999999</v>
+      </c>
+      <c r="Y9" s="27">
+        <v>3.4184999999999999</v>
+      </c>
+      <c r="Z9" s="27"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="27">
+        <v>3.4285000000000001</v>
+      </c>
+      <c r="M10" s="27">
+        <v>3.3784999999999998</v>
+      </c>
+      <c r="N10" s="27">
+        <v>3.3795000000000002</v>
+      </c>
+      <c r="O10" s="27">
+        <v>3.3675000000000002</v>
+      </c>
+      <c r="P10" s="27">
+        <v>3.3845000000000001</v>
+      </c>
+      <c r="Q10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="27">
+        <v>3.4285000000000001</v>
+      </c>
+      <c r="V10" s="27">
+        <v>3.3784999999999998</v>
+      </c>
+      <c r="W10" s="27">
+        <v>3.3795000000000002</v>
+      </c>
+      <c r="X10" s="27">
+        <v>3.3675000000000002</v>
+      </c>
+      <c r="Y10" s="27">
+        <v>3.3845000000000001</v>
+      </c>
+      <c r="Z10" s="27"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="28">
+        <v>1</v>
+      </c>
+      <c r="M14" s="28">
+        <v>2</v>
+      </c>
+      <c r="N14" s="28">
+        <v>3</v>
+      </c>
+      <c r="O14" s="28">
+        <v>4</v>
+      </c>
+      <c r="P14" s="28">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="28">
+        <v>1</v>
+      </c>
+      <c r="V14" s="28">
+        <v>2</v>
+      </c>
+      <c r="W14" s="28">
+        <v>3</v>
+      </c>
+      <c r="X14" s="28">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="28">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="27"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="27">
+        <f>(L8 - $G$510 ) / $F$51</f>
+        <v>2.4542483660130721</v>
+      </c>
+      <c r="M15" s="27">
+        <f t="shared" ref="M15:P15" si="0">(M8+0.02753)/0.153</f>
+        <v>1.3988888888888888</v>
+      </c>
+      <c r="N15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.70607843137254911</v>
+      </c>
+      <c r="O15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.56228758169934634</v>
+      </c>
+      <c r="P15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.65379084967320267</v>
+      </c>
+      <c r="Q15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="27">
+        <f>(U8 - $Y$4   ) / $X$4</f>
+        <v>2.8683879093198996</v>
+      </c>
+      <c r="V15" s="27">
+        <f t="shared" ref="V15:Y15" si="1">(V8 - $Y$4   ) / $X$4</f>
+        <v>1.6782115869017633</v>
+      </c>
+      <c r="W15" s="27">
+        <f t="shared" si="1"/>
+        <v>1.0107052896725444</v>
+      </c>
+      <c r="X15" s="27">
+        <f t="shared" si="1"/>
+        <v>0.87216624685138544</v>
+      </c>
+      <c r="Y15" s="27">
+        <f t="shared" si="1"/>
+        <v>0.96032745591939561</v>
+      </c>
+      <c r="Z15" s="27"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="27">
+        <f t="shared" ref="L16:L17" si="2">(L9 - $G$510 ) / $F$51</f>
+        <v>22.160130718954246</v>
+      </c>
+      <c r="M16" s="27">
+        <f t="shared" ref="M16:P17" si="3">(M9+0.02753)/0.153</f>
+        <v>22.281241830065358</v>
+      </c>
+      <c r="N16" s="27">
+        <f t="shared" si="3"/>
+        <v>23.052483660130719</v>
+      </c>
+      <c r="O16" s="27">
+        <f t="shared" si="3"/>
+        <v>22.889084967320262</v>
+      </c>
+      <c r="P16" s="27">
+        <f t="shared" si="3"/>
+        <v>22.523071895424838</v>
+      </c>
+      <c r="Q16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" s="27">
+        <f t="shared" ref="U16:Y16" si="4">(U9 - $Y$4   ) / $X$4</f>
+        <v>21.854534005037785</v>
+      </c>
+      <c r="V16" s="27">
+        <f t="shared" si="4"/>
+        <v>21.797858942065492</v>
+      </c>
+      <c r="W16" s="27">
+        <f t="shared" si="4"/>
+        <v>22.540931989924434</v>
+      </c>
+      <c r="X16" s="27">
+        <f t="shared" si="4"/>
+        <v>22.383501259445843</v>
+      </c>
+      <c r="Y16" s="27">
+        <f t="shared" si="4"/>
+        <v>22.030856423173805</v>
+      </c>
+      <c r="Z16" s="27"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J17" s="27"/>
+      <c r="K17" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="27">
+        <f t="shared" si="2"/>
+        <v>22.408496732026144</v>
+      </c>
+      <c r="M17" s="27">
+        <f t="shared" si="3"/>
+        <v>22.261633986928103</v>
+      </c>
+      <c r="N17" s="27">
+        <f t="shared" si="3"/>
+        <v>22.268169934640525</v>
+      </c>
+      <c r="O17" s="27">
+        <f t="shared" si="3"/>
+        <v>22.189738562091506</v>
+      </c>
+      <c r="P17" s="27">
+        <f t="shared" si="3"/>
+        <v>22.300849673202617</v>
+      </c>
+      <c r="Q17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="27">
+        <f t="shared" ref="U17:Y17" si="5">(U10 - $Y$4   ) / $X$4</f>
+        <v>22.093828715365241</v>
+      </c>
+      <c r="V17" s="27">
+        <f t="shared" si="5"/>
+        <v>21.778967254408059</v>
+      </c>
+      <c r="W17" s="27">
+        <f t="shared" si="5"/>
+        <v>21.785264483627206</v>
+      </c>
+      <c r="X17" s="27">
+        <f t="shared" si="5"/>
+        <v>21.709697732997483</v>
+      </c>
+      <c r="Y17" s="27">
+        <f t="shared" si="5"/>
+        <v>21.816750629722922</v>
+      </c>
+      <c r="Z17" s="27"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
+        <v>1</v>
+      </c>
+      <c r="B19" s="29">
+        <v>2</v>
+      </c>
+      <c r="C19" s="29">
+        <v>3</v>
+      </c>
+      <c r="D19" s="29">
+        <v>4</v>
+      </c>
+      <c r="E19" s="29">
+        <v>5</v>
+      </c>
+      <c r="F19" s="29">
+        <v>6</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>2.177</v>
+      </c>
+      <c r="D20">
+        <v>2.242</v>
+      </c>
+      <c r="E20">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="F20">
+        <v>3.7309999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>1.141</v>
+      </c>
+      <c r="D21">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.443</v>
+      </c>
+      <c r="F21">
+        <v>3.6749999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D22">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E22">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="F22">
+        <v>3.6850000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.315</v>
+      </c>
+      <c r="F23">
+        <v>3.6349999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D24">
+        <v>0.309</v>
+      </c>
+      <c r="E24">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="F24">
+        <v>3.6360000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>0.247</v>
+      </c>
+      <c r="D25">
+        <v>0.246</v>
+      </c>
+      <c r="E25">
+        <v>3.6469999999999998</v>
+      </c>
+      <c r="F25">
+        <v>3.6240000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D26">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E26">
+        <v>3.6379999999999999</v>
+      </c>
+      <c r="F26">
+        <v>3.641</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D27">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="E27">
+        <v>3.7559999999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(C20:D20)</f>
+        <v>2.2095000000000002</v>
+      </c>
+      <c r="D29">
+        <f>C29-0.2565</f>
+        <v>1.9530000000000003</v>
+      </c>
+      <c r="E29">
+        <f>E20-0.2565</f>
+        <v>0.3755</v>
+      </c>
+      <c r="F29">
+        <f>F20-0.2565</f>
+        <v>3.4744999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f t="shared" ref="C30:C35" si="6">AVERAGE(C21:D21)</f>
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:D35" si="7">C30-0.2565</f>
+        <v>0.93650000000000011</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:F36" si="8">E21-0.2565</f>
+        <v>0.1865</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
+        <v>3.4184999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="7"/>
+        <v>0.41850000000000004</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="8"/>
+        <v>8.0500000000000016E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="8"/>
+        <v>3.4285000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f t="shared" si="6"/>
+        <v>0.4375</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="8"/>
+        <v>5.8499999999999996E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="8"/>
+        <v>3.3784999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f t="shared" si="6"/>
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="7"/>
+        <v>4.3999999999999984E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="8"/>
+        <v>7.2500000000000009E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="8"/>
+        <v>3.3795000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f t="shared" si="6"/>
+        <v>0.2465</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="7"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="8"/>
+        <v>3.3904999999999998</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="8"/>
+        <v>3.3675000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f t="shared" si="6"/>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="7"/>
+        <v>1.5500000000000014E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="8"/>
+        <v>3.3815</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="8"/>
+        <v>3.3845000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <f>AVERAGE(C27:D27)</f>
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="D36">
+        <f>C36-0.2565</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="8"/>
+        <v>3.4994999999999998</v>
+      </c>
+      <c r="F36">
+        <f>F27-0.2565</f>
+        <v>0.23349999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
+      <c r="C40" s="27">
+        <v>0</v>
+      </c>
+      <c r="D40" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
+      <c r="C41" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="27">
+        <v>1.55E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
+      <c r="C42" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="D42" s="27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
+      <c r="C43" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="D43" s="27">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="C44" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="D44" s="27">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
+      <c r="C45" s="27">
+        <v>3.2</v>
+      </c>
+      <c r="D45" s="27">
+        <v>0.41849999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
+      <c r="C46" s="27">
+        <v>6.4</v>
+      </c>
+      <c r="D46" s="27">
+        <v>0.9365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
+      <c r="C47" s="27">
+        <v>12.8</v>
+      </c>
+      <c r="D47" s="27">
+        <v>1.9530000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>0.153</v>
+      </c>
+      <c r="G51">
+        <v>-2.75E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{95B66B43-B6E5-3B48-A826-BEF1CDDE1515}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF15F113-FDB0-A54C-A206-F77D789D3737}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="165" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="54">
+        <v>2.8683879093198996</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="54">
+        <v>1.6782115869017633</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="54">
+        <v>1.0107052896725444</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0.87216624685138544</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="54">
+        <v>0.96032745591939561</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="54">
+        <v>21.854534005037785</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="54">
+        <v>21.797858942065492</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="54">
+        <v>22.540931989924434</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="54">
+        <v>22.383501259445843</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="54">
+        <v>22.030856423173805</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="54">
+        <v>22.093828715365241</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="54">
+        <v>21.778967254408059</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="54">
+        <v>21.785264483627206</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="54">
+        <v>21.709697732997483</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58">
+        <v>5</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="59">
+        <v>21.816750629722922</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="56">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="2">
+        <v>227</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="56">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="56">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2">
+        <v>88</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="56">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2">
+        <v>195</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="56">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="2">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="56">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="2">
+        <v>72</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="56">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="2">
+        <v>220</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="56">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="56">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2">
+        <v>71</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="56">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2">
+        <v>187</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="56">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="2">
+        <v>72</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="56">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="56">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="2">
+        <v>151</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="56">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="2">
+        <v>58</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="56">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="2">
+        <v>69</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/hyperinsulinemia.xlsx
+++ b/hyperinsulinemia.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D25727-8B40-A544-8359-B6ECEE1B685E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC033736-4856-8D48-8572-0B69AB80F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5480" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{CB62793C-C18D-BB4B-9365-60C12FC29B2B}"/>
+    <workbookView xWindow="-4060" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{CB62793C-C18D-BB4B-9365-60C12FC29B2B}"/>
   </bookViews>
   <sheets>
     <sheet name="clamp label" sheetId="1" r:id="rId1"/>
-    <sheet name="insulin measurement" sheetId="2" r:id="rId2"/>
-    <sheet name="insulin_glycemia" sheetId="3" r:id="rId3"/>
+    <sheet name="clamp TIC" sheetId="5" r:id="rId2"/>
+    <sheet name="insulin measurement" sheetId="2" r:id="rId3"/>
+    <sheet name="insulin_glycemia" sheetId="3" r:id="rId4"/>
+    <sheet name="insulin_phenotypes" sheetId="4" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,8 +42,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F3BE681A-A438-AB4D-9300-596A1344CE1C}</author>
+    <author>tc={CE0F6A40-CC64-C94A-9174-6A9C249598FD}</author>
+  </authors>
+  <commentList>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{F3BE681A-A438-AB4D-9300-596A1344CE1C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5.65. This outlier is removed.</t>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="1" shapeId="0" xr:uid="{CE0F6A40-CC64-C94A-9174-6A9C249598FD}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Data from the clamp experiment. </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="114">
   <si>
     <t>Compound</t>
   </si>
@@ -343,6 +375,162 @@
   <si>
     <t>mg/dL</t>
   </si>
+  <si>
+    <t>LFD1</t>
+  </si>
+  <si>
+    <t>HFD5</t>
+  </si>
+  <si>
+    <t>LFD2</t>
+  </si>
+  <si>
+    <t>OB1</t>
+  </si>
+  <si>
+    <t>LFD3</t>
+  </si>
+  <si>
+    <t>OB2</t>
+  </si>
+  <si>
+    <t>LFD4</t>
+  </si>
+  <si>
+    <t>OB3</t>
+  </si>
+  <si>
+    <t>HFD1</t>
+  </si>
+  <si>
+    <t>OB4</t>
+  </si>
+  <si>
+    <t>HFD2</t>
+  </si>
+  <si>
+    <t>OB5</t>
+  </si>
+  <si>
+    <t>HFD3</t>
+  </si>
+  <si>
+    <t>HFD4</t>
+  </si>
+  <si>
+    <t>rep1</t>
+  </si>
+  <si>
+    <t>rep2</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>conc. ng/mL</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>samples</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>HFD</t>
+  </si>
+  <si>
+    <t>ob/ob</t>
+  </si>
+  <si>
+    <t>conc_corrected</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>ch-tail-T1-1</t>
+  </si>
+  <si>
+    <t>ch-tail-T1-2</t>
+  </si>
+  <si>
+    <t>ch-tail-T1-3</t>
+  </si>
+  <si>
+    <t>ch-tail-T1-4</t>
+  </si>
+  <si>
+    <t>ch-tail-T1-5</t>
+  </si>
+  <si>
+    <t>ch-tail-T2-1</t>
+  </si>
+  <si>
+    <t>ch-tail-T2-2</t>
+  </si>
+  <si>
+    <t>ch-tail-T2-3</t>
+  </si>
+  <si>
+    <t>ch-tail-T2-4</t>
+  </si>
+  <si>
+    <t>ch-tail-T2-5</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C6H12O6</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>C13-label-5</t>
+  </si>
+  <si>
+    <t>C13-label-6</t>
+  </si>
+  <si>
+    <t>C16H32O2</t>
+  </si>
+  <si>
+    <t>C13-label-7</t>
+  </si>
+  <si>
+    <t>C13-label-12</t>
+  </si>
+  <si>
+    <t>C13-label-13</t>
+  </si>
+  <si>
+    <t>C13-label-14</t>
+  </si>
+  <si>
+    <t>C13-label-15</t>
+  </si>
+  <si>
+    <t>C13-label-16</t>
+  </si>
 </sst>
 </file>
 
@@ -352,7 +540,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -451,8 +639,35 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +689,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +908,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,6 +997,66 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -809,6 +1096,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -821,29 +1117,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1550,6 +1830,349 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18520913936926495"/>
+                  <c:y val="0.42551765730751195"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$J$10:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$M$10:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.84149999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C81D-414B-BEBB-55D762CAB0FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="811212127"/>
+        <c:axId val="811103375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="811212127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="811103375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="811103375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="811212127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1591,6 +2214,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2662,20 +3325,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>59267</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>450215</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>130387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>151252</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>39492</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2698,8 +3877,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9367308" y="7450667"/>
-          <a:ext cx="2975944" cy="2401358"/>
+          <a:off x="5814695" y="5088467"/>
+          <a:ext cx="2942077" cy="2401358"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2710,16 +3889,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>59267</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104282</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>79587</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>132985</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>193945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2742,8 +3921,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12251267" y="6479682"/>
-          <a:ext cx="2827866" cy="3483103"/>
+          <a:off x="8796867" y="4107322"/>
+          <a:ext cx="2800773" cy="3483103"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2839,8 +4018,8 @@
       <xdr:rowOff>192424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>146628</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>553028</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
@@ -2875,6 +4054,120 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>94385</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>242896</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179466</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBEEA782-FDBC-2747-9E9F-C29D89BA5035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="10">
+          <cell r="J10">
+            <v>6.4</v>
+          </cell>
+          <cell r="M10">
+            <v>0.84149999999999991</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11">
+            <v>3.2</v>
+          </cell>
+          <cell r="M11">
+            <v>0.45250000000000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="J12">
+            <v>1.6</v>
+          </cell>
+          <cell r="M12">
+            <v>0.2215</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="J13">
+            <v>0.8</v>
+          </cell>
+          <cell r="M13">
+            <v>0.1205</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="J14">
+            <v>0.4</v>
+          </cell>
+          <cell r="M14">
+            <v>8.5999999999999993E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="J15">
+            <v>0.2</v>
+          </cell>
+          <cell r="M15">
+            <v>6.7000000000000004E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Yuan, Bo" id="{3A1DBD61-6012-374D-9F50-3DA5C28231DA}" userId="S::bo_yuan@hsph.harvard.edu::41d2fd6e-1db7-4851-8b22-9e19671fc0e5" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3192,12 +4485,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D16" dT="2024-06-26T13:21:26.87" personId="{3A1DBD61-6012-374D-9F50-3DA5C28231DA}" id="{F3BE681A-A438-AB4D-9300-596A1344CE1C}">
+    <text>5.65. This outlier is removed.</text>
+  </threadedComment>
+  <threadedComment ref="A27" dT="2024-06-25T20:10:26.67" personId="{3A1DBD61-6012-374D-9F50-3DA5C28231DA}" id="{CE0F6A40-CC64-C94A-9174-6A9C249598FD}">
+    <text xml:space="preserve">Data from the clamp experiment. </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2963D6E-92F1-B34C-AC14-7B49349C23B2}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="158" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3226,8 +4530,8 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.25">
@@ -3255,20 +4559,20 @@
       <c r="D3" s="19">
         <v>10.68</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="52" t="s">
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3285,29 +4589,29 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37" t="s">
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="35" t="s">
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="51" t="s">
+      <c r="P4" s="59"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35" t="s">
+      <c r="S4" s="59"/>
+      <c r="T4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="35"/>
+      <c r="U4" s="59"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -3327,35 +4631,35 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="46"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="40"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="46"/>
+      <c r="P5" s="70"/>
       <c r="Q5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="51" t="s">
+      <c r="R5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35" t="s">
+      <c r="S5" s="59"/>
+      <c r="T5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="35"/>
+      <c r="U5" s="59"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -3382,24 +4686,24 @@
       <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="48"/>
+      <c r="K6" s="75"/>
       <c r="L6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="49"/>
+      <c r="N6" s="76"/>
       <c r="O6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="47" t="s">
+      <c r="P6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="50"/>
+      <c r="Q6" s="77"/>
       <c r="R6" s="11" t="s">
         <v>3</v>
       </c>
@@ -3431,11 +4735,11 @@
         <v>0.19467180519999999</v>
       </c>
       <c r="L7" s="14">
-        <f>(1-I7)*$C$6/I7</f>
+        <f t="shared" ref="L7:M11" si="0">(1-I7)*$C$6/I7</f>
         <v>50267.697826064417</v>
       </c>
       <c r="M7" s="7">
-        <f>(1-J7)*$C$6/J7</f>
+        <f t="shared" si="0"/>
         <v>53240.358602726541</v>
       </c>
       <c r="N7" s="7">
@@ -3443,31 +4747,31 @@
         <v>4241.4302919534639</v>
       </c>
       <c r="O7" s="8">
-        <f>L7/$H7</f>
+        <f t="shared" ref="O7:Q11" si="1">L7/$H7</f>
         <v>1763.7788710899795</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" ref="P7:Q7" si="0">M7/$H7</f>
+        <f t="shared" si="1"/>
         <v>1868.0827579904048</v>
       </c>
       <c r="Q7" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>148.82211550713907</v>
       </c>
       <c r="R7" s="22">
-        <f>(L7-$B$6)</f>
+        <f t="shared" ref="R7:S11" si="2">(L7-$B$6)</f>
         <v>3519.8978260644217</v>
       </c>
       <c r="S7" s="8">
-        <f>(M7-$B$6)</f>
+        <f t="shared" si="2"/>
         <v>6492.5586027265454</v>
       </c>
       <c r="T7" s="8">
-        <f>R7/$H7</f>
+        <f t="shared" ref="T7:U11" si="3">R7/$H7</f>
         <v>123.50518687945339</v>
       </c>
       <c r="U7" s="8">
-        <f>S7/$H7</f>
+        <f t="shared" si="3"/>
         <v>227.80907377987879</v>
       </c>
     </row>
@@ -3488,43 +4792,43 @@
         <v>0.2371127945</v>
       </c>
       <c r="L8" s="14">
-        <f t="shared" ref="L8:L11" si="1">(1-I8)*$C$6/I8</f>
+        <f t="shared" si="0"/>
         <v>51260.240203609756</v>
       </c>
       <c r="M8" s="7">
-        <f t="shared" ref="M8:M11" si="2">(1-J8)*$C$6/J8</f>
+        <f t="shared" si="0"/>
         <v>50413.901344724109</v>
       </c>
       <c r="N8" s="7">
-        <f t="shared" ref="N8:N10" si="3">(1-K8)*$D$6/K8</f>
+        <f>(1-K8)*$D$6/K8</f>
         <v>3298.7380360659536</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" ref="O8:O11" si="4">L8/$H8</f>
+        <f t="shared" si="1"/>
         <v>2050.4096081443904</v>
       </c>
       <c r="P8" s="8">
-        <f t="shared" ref="P8:P11" si="5">M8/$H8</f>
+        <f t="shared" si="1"/>
         <v>2016.5560537889644</v>
       </c>
       <c r="Q8" s="23">
-        <f t="shared" ref="Q8:Q11" si="6">N8/$H8</f>
+        <f t="shared" si="1"/>
         <v>131.94952144263814</v>
       </c>
       <c r="R8" s="22">
-        <f t="shared" ref="R8:R11" si="7">(L8-$B$6)</f>
+        <f t="shared" si="2"/>
         <v>4512.4402036097599</v>
       </c>
       <c r="S8" s="8">
-        <f>(M8-$B$6)</f>
+        <f t="shared" si="2"/>
         <v>3666.101344724113</v>
       </c>
       <c r="T8" s="8">
-        <f t="shared" ref="T8:T11" si="8">R8/$H8</f>
+        <f t="shared" si="3"/>
         <v>180.4976081443904</v>
       </c>
       <c r="U8" s="8">
-        <f t="shared" ref="U8:U11" si="9">S8/$H8</f>
+        <f t="shared" si="3"/>
         <v>146.64405378896453</v>
       </c>
     </row>
@@ -3545,43 +4849,43 @@
         <v>0.18379338789999999</v>
       </c>
       <c r="L9" s="14">
+        <f t="shared" si="0"/>
+        <v>52075.252906285568</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="0"/>
+        <v>51588.643709298085</v>
+      </c>
+      <c r="N9" s="7">
+        <f>(1-K9)*$D$6/K9</f>
+        <v>4553.157895479917</v>
+      </c>
+      <c r="O9" s="8">
         <f t="shared" si="1"/>
-        <v>52075.252906285568</v>
-      </c>
-      <c r="M9" s="7">
+        <v>1833.6356657142808</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="1"/>
+        <v>1816.5015390597919</v>
+      </c>
+      <c r="Q9" s="23">
+        <f t="shared" si="1"/>
+        <v>160.32246110844778</v>
+      </c>
+      <c r="R9" s="22">
         <f t="shared" si="2"/>
-        <v>51588.643709298085</v>
-      </c>
-      <c r="N9" s="7">
+        <v>5327.4529062855727</v>
+      </c>
+      <c r="S9" s="8">
+        <f t="shared" si="2"/>
+        <v>4840.8437092980894</v>
+      </c>
+      <c r="T9" s="8">
         <f t="shared" si="3"/>
-        <v>4553.157895479917</v>
-      </c>
-      <c r="O9" s="8">
-        <f t="shared" si="4"/>
-        <v>1833.6356657142808</v>
-      </c>
-      <c r="P9" s="8">
-        <f t="shared" si="5"/>
-        <v>1816.5015390597919</v>
-      </c>
-      <c r="Q9" s="23">
-        <f t="shared" si="6"/>
-        <v>160.32246110844778</v>
-      </c>
-      <c r="R9" s="22">
-        <f t="shared" si="7"/>
-        <v>5327.4529062855727</v>
-      </c>
-      <c r="S9" s="8">
-        <f>(M9-$B$6)</f>
-        <v>4840.8437092980894</v>
-      </c>
-      <c r="T9" s="8">
-        <f t="shared" si="8"/>
         <v>187.58636993963285</v>
       </c>
       <c r="U9" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>170.45224328514399</v>
       </c>
     </row>
@@ -3602,43 +4906,43 @@
         <v>0.32212808580000002</v>
       </c>
       <c r="L10" s="14">
+        <f t="shared" si="0"/>
+        <v>55540.209730181683</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="0"/>
+        <v>50211.454357673065</v>
+      </c>
+      <c r="N10" s="7">
+        <f>(1-K10)*$D$6/K10</f>
+        <v>2157.5533051237471</v>
+      </c>
+      <c r="O10" s="8">
         <f t="shared" si="1"/>
-        <v>55540.209730181683</v>
-      </c>
-      <c r="M10" s="7">
+        <v>2212.7573597681944</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="1"/>
+        <v>2000.4563489112775</v>
+      </c>
+      <c r="Q10" s="23">
+        <f t="shared" si="1"/>
+        <v>85.958299008914224</v>
+      </c>
+      <c r="R10" s="22">
         <f t="shared" si="2"/>
-        <v>50211.454357673065</v>
-      </c>
-      <c r="N10" s="7">
+        <v>8792.4097301816873</v>
+      </c>
+      <c r="S10" s="8">
+        <f t="shared" si="2"/>
+        <v>3463.6543576730692</v>
+      </c>
+      <c r="T10" s="8">
         <f t="shared" si="3"/>
-        <v>2157.5533051237471</v>
-      </c>
-      <c r="O10" s="8">
-        <f t="shared" si="4"/>
-        <v>2212.7573597681944</v>
-      </c>
-      <c r="P10" s="8">
-        <f t="shared" si="5"/>
-        <v>2000.4563489112775</v>
-      </c>
-      <c r="Q10" s="23">
-        <f t="shared" si="6"/>
-        <v>85.958299008914224</v>
-      </c>
-      <c r="R10" s="22">
-        <f t="shared" si="7"/>
-        <v>8792.4097301816873</v>
-      </c>
-      <c r="S10" s="8">
-        <f>(M10-$B$6)</f>
-        <v>3463.6543576730692</v>
-      </c>
-      <c r="T10" s="8">
-        <f t="shared" si="8"/>
         <v>350.29520837377237</v>
       </c>
       <c r="U10" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>137.99419751685534</v>
       </c>
     </row>
@@ -3659,11 +4963,11 @@
         <v>0.26383384050000003</v>
       </c>
       <c r="L11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51413.379888314194</v>
       </c>
       <c r="M11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>49630.648684659682</v>
       </c>
       <c r="N11" s="16">
@@ -3671,31 +4975,31 @@
         <v>2860.802232881721</v>
       </c>
       <c r="O11" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2016.2109760123212</v>
       </c>
       <c r="P11" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1946.2999484180268</v>
       </c>
       <c r="Q11" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>112.1883228581067</v>
       </c>
       <c r="R11" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>4665.5798883141979</v>
       </c>
       <c r="S11" s="8">
-        <f>(M11-$B$6)</f>
+        <f t="shared" si="2"/>
         <v>2882.8486846596861</v>
       </c>
       <c r="T11" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>182.96391718879207</v>
       </c>
       <c r="U11" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>113.0528895944975</v>
       </c>
     </row>
@@ -3767,7 +5071,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="21">
-        <f t="shared" ref="D17:D20" si="10">O8</f>
+        <f>O8</f>
         <v>2050.4096081443904</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3788,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="21">
-        <f t="shared" si="10"/>
+        <f>O9</f>
         <v>1833.6356657142808</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3830,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="26">
-        <f t="shared" si="10"/>
+        <f>O11</f>
         <v>2016.2109760123212</v>
       </c>
       <c r="E20" s="25" t="s">
@@ -3872,7 +5176,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="21">
-        <f t="shared" ref="D22:D25" si="11">P8</f>
+        <f>P8</f>
         <v>2016.5560537889644</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -3893,7 +5197,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="21">
-        <f t="shared" si="11"/>
+        <f>P9</f>
         <v>1816.5015390597919</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3914,7 +5218,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="11"/>
+        <f>P10</f>
         <v>2000.4563489112775</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3935,7 +5239,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="26">
-        <f t="shared" si="11"/>
+        <f>P11</f>
         <v>1946.2999484180268</v>
       </c>
       <c r="E25" s="25" t="s">
@@ -3977,7 +5281,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="21">
-        <f t="shared" ref="D27:D30" si="12">Q8</f>
+        <f>Q8</f>
         <v>131.94952144263814</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -3998,7 +5302,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="21">
-        <f t="shared" si="12"/>
+        <f>Q9</f>
         <v>160.32246110844778</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -4019,7 +5323,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="21">
-        <f t="shared" si="12"/>
+        <f>Q10</f>
         <v>85.958299008914224</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -4040,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="21">
-        <f t="shared" si="12"/>
+        <f>Q11</f>
         <v>112.1883228581067</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -4082,7 +5386,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="21">
-        <f t="shared" ref="D32:D35" si="13">T8</f>
+        <f>T8</f>
         <v>180.4976081443904</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -4103,7 +5407,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="21">
-        <f t="shared" si="13"/>
+        <f>T9</f>
         <v>187.58636993963285</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -4124,7 +5428,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="21">
-        <f t="shared" si="13"/>
+        <f>T10</f>
         <v>350.29520837377237</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -4145,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="21">
-        <f t="shared" si="13"/>
+        <f>T11</f>
         <v>182.96391718879207</v>
       </c>
       <c r="E35" s="25" t="s">
@@ -4187,7 +5491,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="21">
-        <f t="shared" ref="D37:D40" si="14">U8</f>
+        <f>U8</f>
         <v>146.64405378896453</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -4208,7 +5512,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="21">
-        <f t="shared" si="14"/>
+        <f>U9</f>
         <v>170.45224328514399</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -4229,7 +5533,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="21">
-        <f t="shared" si="14"/>
+        <f>U10</f>
         <v>137.99419751685534</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -4250,7 +5554,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="21">
-        <f t="shared" si="14"/>
+        <f>U11</f>
         <v>113.0528895944975</v>
       </c>
       <c r="E40" s="25" t="s">
@@ -4292,7 +5596,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="21">
-        <f t="shared" ref="D42:D45" si="15">Q8</f>
+        <f>Q8</f>
         <v>131.94952144263814</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -4313,7 +5617,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="21">
-        <f t="shared" si="15"/>
+        <f>Q9</f>
         <v>160.32246110844778</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -4334,7 +5638,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="21">
-        <f t="shared" si="15"/>
+        <f>Q10</f>
         <v>85.958299008914224</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -4345,23 +5649,23 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="21">
-        <f t="shared" si="15"/>
+      <c r="D45" s="26">
+        <f>Q11</f>
         <v>112.1883228581067</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4390,11 +5694,892 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B943C85-A9A9-A449-9F27-B8A93D6B5E6C}">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="55">
+        <v>32216490</v>
+      </c>
+      <c r="E2" s="55">
+        <v>27213360</v>
+      </c>
+      <c r="F2" s="55">
+        <v>29317362</v>
+      </c>
+      <c r="G2" s="55">
+        <v>29518696</v>
+      </c>
+      <c r="H2" s="55">
+        <v>32218050</v>
+      </c>
+      <c r="I2" s="55">
+        <v>32760842</v>
+      </c>
+      <c r="J2" s="55">
+        <v>30438502</v>
+      </c>
+      <c r="K2" s="55">
+        <v>32258050</v>
+      </c>
+      <c r="L2" s="55">
+        <v>29478174</v>
+      </c>
+      <c r="M2" s="55">
+        <v>34198772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="55">
+        <v>2368691.75</v>
+      </c>
+      <c r="E3" s="55">
+        <v>2068149.5</v>
+      </c>
+      <c r="F3" s="55">
+        <v>2206694</v>
+      </c>
+      <c r="G3" s="55">
+        <v>2223006.5</v>
+      </c>
+      <c r="H3" s="55">
+        <v>2375914</v>
+      </c>
+      <c r="I3" s="55">
+        <v>2490109.25</v>
+      </c>
+      <c r="J3" s="55">
+        <v>2292353.25</v>
+      </c>
+      <c r="K3" s="55">
+        <v>2458467.75</v>
+      </c>
+      <c r="L3" s="55">
+        <v>2185378.25</v>
+      </c>
+      <c r="M3" s="55">
+        <v>2535433.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="55">
+        <v>383177.72</v>
+      </c>
+      <c r="E4" s="55">
+        <v>295141.21999999997</v>
+      </c>
+      <c r="F4" s="55">
+        <v>332079.65999999997</v>
+      </c>
+      <c r="G4" s="55">
+        <v>303032.28000000003</v>
+      </c>
+      <c r="H4" s="55">
+        <v>340101.97</v>
+      </c>
+      <c r="I4" s="55">
+        <v>358118.16</v>
+      </c>
+      <c r="J4" s="55">
+        <v>325595.59000000003</v>
+      </c>
+      <c r="K4" s="55">
+        <v>340713.09</v>
+      </c>
+      <c r="L4" s="55">
+        <v>283052.34000000003</v>
+      </c>
+      <c r="M4" s="55">
+        <v>388680.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="55">
+        <v>70365.2</v>
+      </c>
+      <c r="E5" s="55">
+        <v>68593.81</v>
+      </c>
+      <c r="F5" s="55">
+        <v>67065.52</v>
+      </c>
+      <c r="G5" s="55">
+        <v>75428.13</v>
+      </c>
+      <c r="H5" s="55">
+        <v>84806.65</v>
+      </c>
+      <c r="I5" s="55">
+        <v>99769.9</v>
+      </c>
+      <c r="J5" s="55">
+        <v>97998.12</v>
+      </c>
+      <c r="K5" s="55">
+        <v>79256.800000000003</v>
+      </c>
+      <c r="L5" s="55">
+        <v>61767.03</v>
+      </c>
+      <c r="M5" s="55">
+        <v>86849.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="55">
+        <v>17762.509999999998</v>
+      </c>
+      <c r="E6" s="55">
+        <v>13243.93</v>
+      </c>
+      <c r="F6" s="55">
+        <v>12900.06</v>
+      </c>
+      <c r="G6" s="55">
+        <v>19391.36</v>
+      </c>
+      <c r="H6" s="55">
+        <v>13214.44</v>
+      </c>
+      <c r="I6" s="55">
+        <v>21565.48</v>
+      </c>
+      <c r="J6" s="55">
+        <v>19456.88</v>
+      </c>
+      <c r="K6" s="55">
+        <v>8951.27</v>
+      </c>
+      <c r="L6" s="55">
+        <v>12103.43</v>
+      </c>
+      <c r="M6" s="55">
+        <v>16049.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="55">
+        <v>43362.03</v>
+      </c>
+      <c r="E7" s="55">
+        <v>40665.14</v>
+      </c>
+      <c r="F7" s="55">
+        <v>37099.46</v>
+      </c>
+      <c r="G7" s="55">
+        <v>35939.620000000003</v>
+      </c>
+      <c r="H7" s="55">
+        <v>39860.800000000003</v>
+      </c>
+      <c r="I7" s="55">
+        <v>43535.63</v>
+      </c>
+      <c r="J7" s="55">
+        <v>33227.54</v>
+      </c>
+      <c r="K7" s="55">
+        <v>31738.83</v>
+      </c>
+      <c r="L7" s="55">
+        <v>38773.1</v>
+      </c>
+      <c r="M7" s="55">
+        <v>33899.599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="55">
+        <v>1876226.38</v>
+      </c>
+      <c r="E8" s="55">
+        <v>1542850.5</v>
+      </c>
+      <c r="F8" s="55">
+        <v>1641695.12</v>
+      </c>
+      <c r="G8" s="55">
+        <v>1539191.88</v>
+      </c>
+      <c r="H8" s="55">
+        <v>1829853.38</v>
+      </c>
+      <c r="I8" s="55">
+        <v>1774623.62</v>
+      </c>
+      <c r="J8" s="55">
+        <v>1746799.38</v>
+      </c>
+      <c r="K8" s="55">
+        <v>1822462.5</v>
+      </c>
+      <c r="L8" s="55">
+        <v>1721808.62</v>
+      </c>
+      <c r="M8" s="55">
+        <v>2013274.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="56">
+        <v>27711978</v>
+      </c>
+      <c r="E9" s="56">
+        <v>31346726</v>
+      </c>
+      <c r="F9" s="56">
+        <v>23056938</v>
+      </c>
+      <c r="G9" s="56">
+        <v>19312632</v>
+      </c>
+      <c r="H9" s="56">
+        <v>20458122</v>
+      </c>
+      <c r="I9" s="56">
+        <v>28331750</v>
+      </c>
+      <c r="J9" s="56">
+        <v>27472800</v>
+      </c>
+      <c r="K9" s="56">
+        <v>27942658</v>
+      </c>
+      <c r="L9" s="56">
+        <v>16463392</v>
+      </c>
+      <c r="M9" s="56">
+        <v>26022506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="55">
+        <v>4891545.5</v>
+      </c>
+      <c r="E10" s="55">
+        <v>5347600</v>
+      </c>
+      <c r="F10" s="55">
+        <v>3987554.75</v>
+      </c>
+      <c r="G10" s="55">
+        <v>3247285.75</v>
+      </c>
+      <c r="H10" s="55">
+        <v>3465467.25</v>
+      </c>
+      <c r="I10" s="55">
+        <v>4081369.25</v>
+      </c>
+      <c r="J10" s="55">
+        <v>4978370</v>
+      </c>
+      <c r="K10" s="55">
+        <v>4978891.5</v>
+      </c>
+      <c r="L10" s="55">
+        <v>2849643.75</v>
+      </c>
+      <c r="M10" s="55">
+        <v>4503459.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="55">
+        <v>929396.69</v>
+      </c>
+      <c r="E11" s="55">
+        <v>515741.66</v>
+      </c>
+      <c r="F11" s="55">
+        <v>655925.88</v>
+      </c>
+      <c r="G11" s="55">
+        <v>274413.03000000003</v>
+      </c>
+      <c r="H11" s="55">
+        <v>401466.62</v>
+      </c>
+      <c r="I11" s="55">
+        <v>839525.81</v>
+      </c>
+      <c r="J11" s="55">
+        <v>687655.69</v>
+      </c>
+      <c r="K11" s="55">
+        <v>908186.06</v>
+      </c>
+      <c r="L11" s="55">
+        <v>279238.53000000003</v>
+      </c>
+      <c r="M11" s="55">
+        <v>668999.18999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="55">
+        <v>152195.32999999999</v>
+      </c>
+      <c r="E12" s="55">
+        <v>49444.33</v>
+      </c>
+      <c r="F12" s="55">
+        <v>84023.15</v>
+      </c>
+      <c r="G12" s="55">
+        <v>6198.3</v>
+      </c>
+      <c r="H12" s="55">
+        <v>40792.57</v>
+      </c>
+      <c r="I12" s="55">
+        <v>111167.94</v>
+      </c>
+      <c r="J12" s="55">
+        <v>74615.62</v>
+      </c>
+      <c r="K12" s="55">
+        <v>147168.39000000001</v>
+      </c>
+      <c r="L12" s="55">
+        <v>30071.759999999998</v>
+      </c>
+      <c r="M12" s="55">
+        <v>95467.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="55">
+        <v>76773.119999999995</v>
+      </c>
+      <c r="E13" s="55">
+        <v>17138.41</v>
+      </c>
+      <c r="F13" s="55">
+        <v>50852.11</v>
+      </c>
+      <c r="G13" s="55">
+        <v>0</v>
+      </c>
+      <c r="H13" s="55">
+        <v>14469.65</v>
+      </c>
+      <c r="I13" s="55">
+        <v>60568.98</v>
+      </c>
+      <c r="J13" s="55">
+        <v>62019.41</v>
+      </c>
+      <c r="K13" s="55">
+        <v>69413.289999999994</v>
+      </c>
+      <c r="L13" s="55">
+        <v>6640.51</v>
+      </c>
+      <c r="M13" s="55">
+        <v>41364.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="55">
+        <v>9470.06</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0</v>
+      </c>
+      <c r="F14" s="55">
+        <v>0</v>
+      </c>
+      <c r="G14" s="55">
+        <v>0</v>
+      </c>
+      <c r="H14" s="55">
+        <v>0</v>
+      </c>
+      <c r="I14" s="55">
+        <v>13937.98</v>
+      </c>
+      <c r="J14" s="55">
+        <v>0</v>
+      </c>
+      <c r="K14" s="55">
+        <v>10091.69</v>
+      </c>
+      <c r="L14" s="55">
+        <v>0</v>
+      </c>
+      <c r="M14" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="55">
+        <v>0</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0</v>
+      </c>
+      <c r="F15" s="55">
+        <v>0</v>
+      </c>
+      <c r="G15" s="55">
+        <v>0</v>
+      </c>
+      <c r="H15" s="55">
+        <v>0</v>
+      </c>
+      <c r="I15" s="55">
+        <v>0</v>
+      </c>
+      <c r="J15" s="55">
+        <v>0</v>
+      </c>
+      <c r="K15" s="55">
+        <v>7668.39</v>
+      </c>
+      <c r="L15" s="55">
+        <v>0</v>
+      </c>
+      <c r="M15" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0</v>
+      </c>
+      <c r="F16" s="55">
+        <v>0</v>
+      </c>
+      <c r="G16" s="55">
+        <v>0</v>
+      </c>
+      <c r="H16" s="55">
+        <v>0</v>
+      </c>
+      <c r="I16" s="55">
+        <v>0</v>
+      </c>
+      <c r="J16" s="55">
+        <v>0</v>
+      </c>
+      <c r="K16" s="55">
+        <v>7470.44</v>
+      </c>
+      <c r="L16" s="55">
+        <v>0</v>
+      </c>
+      <c r="M16" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="55">
+        <v>0</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0</v>
+      </c>
+      <c r="F17" s="55">
+        <v>0</v>
+      </c>
+      <c r="G17" s="55">
+        <v>0</v>
+      </c>
+      <c r="H17" s="55">
+        <v>0</v>
+      </c>
+      <c r="I17" s="55">
+        <v>0</v>
+      </c>
+      <c r="J17" s="55">
+        <v>0</v>
+      </c>
+      <c r="K17" s="55">
+        <v>0</v>
+      </c>
+      <c r="L17" s="55">
+        <v>5066.34</v>
+      </c>
+      <c r="M17" s="55">
+        <v>9622.2099999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="55">
+        <v>0</v>
+      </c>
+      <c r="E18" s="55">
+        <v>0</v>
+      </c>
+      <c r="F18" s="55">
+        <v>0</v>
+      </c>
+      <c r="G18" s="55">
+        <v>0</v>
+      </c>
+      <c r="H18" s="55">
+        <v>0</v>
+      </c>
+      <c r="I18" s="55">
+        <v>19804.84</v>
+      </c>
+      <c r="J18" s="55">
+        <v>48766.22</v>
+      </c>
+      <c r="K18" s="55">
+        <v>10187.450000000001</v>
+      </c>
+      <c r="L18" s="55">
+        <v>24447.72</v>
+      </c>
+      <c r="M18" s="55">
+        <v>28198.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0</v>
+      </c>
+      <c r="E19" s="55">
+        <v>0</v>
+      </c>
+      <c r="F19" s="55">
+        <v>0</v>
+      </c>
+      <c r="G19" s="55">
+        <v>0</v>
+      </c>
+      <c r="H19" s="55">
+        <v>0</v>
+      </c>
+      <c r="I19" s="55">
+        <v>167695.39000000001</v>
+      </c>
+      <c r="J19" s="55">
+        <v>205944.12</v>
+      </c>
+      <c r="K19" s="55">
+        <v>139475.23000000001</v>
+      </c>
+      <c r="L19" s="55">
+        <v>176161.31</v>
+      </c>
+      <c r="M19" s="55">
+        <v>221275.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="55">
+        <v>0</v>
+      </c>
+      <c r="E20" s="55">
+        <v>0</v>
+      </c>
+      <c r="F20" s="55">
+        <v>0</v>
+      </c>
+      <c r="G20" s="55">
+        <v>0</v>
+      </c>
+      <c r="H20" s="55">
+        <v>0</v>
+      </c>
+      <c r="I20" s="55">
+        <v>1222357.5</v>
+      </c>
+      <c r="J20" s="55">
+        <v>1530214.12</v>
+      </c>
+      <c r="K20" s="55">
+        <v>1062362</v>
+      </c>
+      <c r="L20" s="55">
+        <v>1346624.12</v>
+      </c>
+      <c r="M20" s="55">
+        <v>1664868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="55">
+        <v>0</v>
+      </c>
+      <c r="E21" s="55">
+        <v>0</v>
+      </c>
+      <c r="F21" s="55">
+        <v>0</v>
+      </c>
+      <c r="G21" s="55">
+        <v>0</v>
+      </c>
+      <c r="H21" s="55">
+        <v>0</v>
+      </c>
+      <c r="I21" s="55">
+        <v>6734711.5</v>
+      </c>
+      <c r="J21" s="55">
+        <v>8454880</v>
+      </c>
+      <c r="K21" s="55">
+        <v>6304825.5</v>
+      </c>
+      <c r="L21" s="55">
+        <v>7772108</v>
+      </c>
+      <c r="M21" s="55">
+        <v>9237367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08735C5-A93D-0B49-90FB-D90EC9C849F0}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5497,33 +7682,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF15F113-FDB0-A54C-A206-F77D789D3737}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="165" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F25"/>
+    <sheetView zoomScale="165" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="37" t="s">
         <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -5540,7 +7728,7 @@
       <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="34">
         <v>2.8683879093198996</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -5560,7 +7748,7 @@
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="34">
         <v>1.6782115869017633</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5580,7 +7768,7 @@
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="34">
         <v>1.0107052896725444</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -5600,7 +7788,7 @@
       <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="34">
         <v>0.87216624685138544</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -5620,7 +7808,7 @@
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="34">
         <v>0.96032745591939561</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -5640,7 +7828,7 @@
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="34">
         <v>21.854534005037785</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -5660,7 +7848,7 @@
       <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="34">
         <v>21.797858942065492</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -5680,7 +7868,7 @@
       <c r="C9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="34">
         <v>22.540931989924434</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -5700,7 +7888,7 @@
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="34">
         <v>22.383501259445843</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -5720,7 +7908,7 @@
       <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="34">
         <v>22.030856423173805</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -5740,7 +7928,7 @@
       <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="34">
         <v>22.093828715365241</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -5760,7 +7948,7 @@
       <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="34">
         <v>21.778967254408059</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -5780,7 +7968,7 @@
       <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="34">
         <v>21.785264483627206</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -5800,7 +7988,7 @@
       <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="34">
         <v>21.709697732997483</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -5811,27 +7999,27 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
+      <c r="A16" s="38">
         <v>5</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="39">
         <v>21.816750629722922</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="56">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="36">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5850,8 +8038,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="56">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="36">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5870,8 +8058,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="56">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="36">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5890,8 +8078,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="56">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="36">
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5909,10 +8097,10 @@
       <c r="F20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="55"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="56">
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="36">
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -5930,10 +8118,10 @@
       <c r="F21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="55"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="56">
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="36">
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -5952,8 +8140,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="56">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="36">
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -5972,8 +8160,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="56">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="36">
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5992,8 +8180,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="56">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="36">
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -6011,9 +8199,22 @@
       <c r="F25" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="56">
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="36">
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -6031,9 +8232,22 @@
       <c r="F26" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="56">
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="36">
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -6052,8 +8266,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="56">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="36">
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -6072,8 +8286,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="56">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="36">
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -6092,8 +8306,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="56">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="36">
         <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -6111,29 +8325,587 @@
       <c r="F30" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="56">
+      <c r="I30" s="57"/>
+      <c r="J30" s="55"/>
+    </row>
+    <row r="31" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="53">
         <v>5</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="54">
         <v>69</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="38" t="s">
         <v>21</v>
       </c>
+      <c r="I31" s="57"/>
+      <c r="J31" s="55"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I32" s="57"/>
+      <c r="J32" s="55"/>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I33" s="57"/>
+      <c r="J33" s="55"/>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I34" s="57"/>
+      <c r="J34" s="55"/>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I35" s="57"/>
+      <c r="J35" s="55"/>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I36" s="57"/>
+      <c r="J36" s="55"/>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I37" s="57"/>
+      <c r="J37" s="55"/>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I38" s="57"/>
+      <c r="J38" s="55"/>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I39" s="57"/>
+      <c r="J39" s="55"/>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I40" s="57"/>
+      <c r="J40" s="55"/>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I41" s="57"/>
+      <c r="J41" s="55"/>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I42" s="57"/>
+      <c r="J42" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16241BCF-2F35-F047-A633-D89C20DC94F9}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView zoomScale="216" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="78"/>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.621</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <f>AVERAGE(C3:D3)</f>
+        <v>1.6025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E10" si="0">AVERAGE(C4:D4)</f>
+        <v>0.84149999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45250000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="G10" s="40">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="H10" s="40">
+        <v>3.1399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="42">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D13" s="43">
+        <f>(C13 - $H$10) / $G$10</f>
+        <v>0.90165224232887486</v>
+      </c>
+      <c r="E13" s="43">
+        <f>D13</f>
+        <v>0.90165224232887486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="42">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D14" s="43">
+        <f>(C14 - $H$10) / $G$10</f>
+        <v>0.7915027537372149</v>
+      </c>
+      <c r="E14" s="43">
+        <f t="shared" ref="E14:E21" si="1">D14</f>
+        <v>0.7915027537372149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="42">
+        <v>0.26</v>
+      </c>
+      <c r="D15" s="43">
+        <f>(C15 - $H$10) / $G$10</f>
+        <v>1.798583792289536</v>
+      </c>
+      <c r="E15" s="43">
+        <f t="shared" si="1"/>
+        <v>1.798583792289536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="44">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="47">
+        <f t="shared" ref="D17:D26" si="2">(C17 - $H$10) / $G$10</f>
+        <v>2.1132966168371361</v>
+      </c>
+      <c r="E17" s="47">
+        <f t="shared" si="1"/>
+        <v>2.1132966168371361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="46">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D18" s="47">
+        <f t="shared" si="2"/>
+        <v>2.4830841856805668</v>
+      </c>
+      <c r="E18" s="47">
+        <f t="shared" si="1"/>
+        <v>2.4830841856805668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="D19" s="47">
+        <f t="shared" si="2"/>
+        <v>4.536585365853659</v>
+      </c>
+      <c r="E19" s="47">
+        <f t="shared" si="1"/>
+        <v>4.536585365853659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="46">
+        <v>0.221</v>
+      </c>
+      <c r="D20" s="47">
+        <f t="shared" si="2"/>
+        <v>1.4917387883556255</v>
+      </c>
+      <c r="E20" s="47">
+        <f t="shared" si="1"/>
+        <v>1.4917387883556255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="48">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D21" s="49">
+        <f t="shared" si="2"/>
+        <v>4.1274586939417786</v>
+      </c>
+      <c r="E21" s="49">
+        <f t="shared" si="1"/>
+        <v>4.1274586939417786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.436</v>
+      </c>
+      <c r="D22" s="50">
+        <f t="shared" si="2"/>
+        <v>3.1833202202989774</v>
+      </c>
+      <c r="E22" s="50">
+        <f>D22*10</f>
+        <v>31.833202202989774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="D23" s="50">
+        <f t="shared" si="2"/>
+        <v>4.4343036978756887</v>
+      </c>
+      <c r="E23" s="50">
+        <f t="shared" ref="E23:E26" si="3">D23*10</f>
+        <v>44.343036978756885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="D24" s="50">
+        <f t="shared" si="2"/>
+        <v>6.4327301337529512</v>
+      </c>
+      <c r="E24" s="50">
+        <f t="shared" si="3"/>
+        <v>64.327301337529519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.106</v>
+      </c>
+      <c r="D25" s="50">
+        <f t="shared" si="2"/>
+        <v>0.58693941778127467</v>
+      </c>
+      <c r="E25" s="50">
+        <f t="shared" si="3"/>
+        <v>5.8693941778127465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="D26" s="50">
+        <f t="shared" si="2"/>
+        <v>1.5625491738788357</v>
+      </c>
+      <c r="E26" s="50">
+        <f t="shared" si="3"/>
+        <v>15.625491738788357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52">
+        <v>2.8683879093198996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52">
+        <v>1.6782115869017633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52">
+        <v>1.0107052896725444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52">
+        <v>0.87216624685138544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52">
+        <v>0.96032745591939561</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/hyperinsulinemia.xlsx
+++ b/hyperinsulinemia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC033736-4856-8D48-8572-0B69AB80F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F24920-367D-7B48-AC1E-D491C32E28C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4060" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{CB62793C-C18D-BB4B-9365-60C12FC29B2B}"/>
+    <workbookView xWindow="-5480" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{CB62793C-C18D-BB4B-9365-60C12FC29B2B}"/>
   </bookViews>
   <sheets>
     <sheet name="clamp label" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="115">
   <si>
     <t>Compound</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>C13-label-16</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -908,7 +911,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1056,11 +1059,37 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1093,37 +1122,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4012,14 +4026,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238607</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>192424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>553028</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>722361</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
@@ -4500,8 +4514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2963D6E-92F1-B34C-AC14-7B49349C23B2}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="158" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView zoomScale="158" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4530,8 +4544,8 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.25">
@@ -4559,20 +4573,20 @@
       <c r="D3" s="19">
         <v>10.68</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="72" t="s">
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4593,18 +4607,18 @@
         <v>11</v>
       </c>
       <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61" t="s">
+      <c r="K4" s="68"/>
+      <c r="L4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
       <c r="O4" s="59" t="s">
         <v>12</v>
       </c>
       <c r="P4" s="59"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="71" t="s">
+      <c r="Q4" s="77"/>
+      <c r="R4" s="58" t="s">
         <v>13</v>
       </c>
       <c r="S4" s="59"/>
@@ -4631,28 +4645,28 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="64"/>
+      <c r="M5" s="72"/>
       <c r="N5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="70" t="s">
+      <c r="O5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="70"/>
+      <c r="P5" s="66"/>
       <c r="Q5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="71" t="s">
+      <c r="R5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="S5" s="59"/>
@@ -4686,24 +4700,24 @@
       <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="75"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="76" t="s">
+      <c r="M6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="76"/>
+      <c r="N6" s="64"/>
       <c r="O6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="74" t="s">
+      <c r="P6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="77"/>
+      <c r="Q6" s="65"/>
       <c r="R6" s="11" t="s">
         <v>3</v>
       </c>
@@ -5649,10 +5663,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="80" t="s">
+      <c r="A45" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="25" t="s">
@@ -5671,6 +5685,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:P5"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="T5:U5"/>
@@ -5680,13 +5701,6 @@
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="R5:S5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7684,18 +7698,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF15F113-FDB0-A54C-A206-F77D789D3737}">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="165" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -7982,7 +7995,7 @@
       <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -8002,7 +8015,7 @@
       <c r="A16" s="38">
         <v>5</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="82" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="38" t="s">
@@ -8018,7 +8031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="36">
         <v>1</v>
       </c>
@@ -8038,7 +8051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="36">
         <v>1</v>
       </c>
@@ -8058,7 +8071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="36">
         <v>1</v>
       </c>
@@ -8078,7 +8091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="36">
         <v>2</v>
       </c>
@@ -8097,9 +8110,8 @@
       <c r="F20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="36">
         <v>2</v>
       </c>
@@ -8118,9 +8130,8 @@
       <c r="F21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="35"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="36">
         <v>2</v>
       </c>
@@ -8140,7 +8151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="36">
         <v>3</v>
       </c>
@@ -8160,7 +8171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="36">
         <v>3</v>
       </c>
@@ -8180,7 +8191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="36">
         <v>3</v>
       </c>
@@ -8199,21 +8210,8 @@
       <c r="F25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="36">
         <v>4</v>
       </c>
@@ -8232,21 +8230,8 @@
       <c r="F26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="36">
         <v>4</v>
       </c>
@@ -8266,7 +8251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="36">
         <v>4</v>
       </c>
@@ -8286,7 +8271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="36">
         <v>5</v>
       </c>
@@ -8306,7 +8291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="36">
         <v>5</v>
       </c>
@@ -8325,10 +8310,8 @@
       <c r="F30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="57"/>
-      <c r="J30" s="55"/>
-    </row>
-    <row r="31" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53">
         <v>5</v>
       </c>
@@ -8347,52 +8330,306 @@
       <c r="F31" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="55"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I32" s="57"/>
-      <c r="J32" s="55"/>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I33" s="57"/>
-      <c r="J33" s="55"/>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I34" s="57"/>
-      <c r="J34" s="55"/>
-    </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I35" s="57"/>
-      <c r="J35" s="55"/>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I36" s="57"/>
-      <c r="J36" s="55"/>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I37" s="57"/>
-      <c r="J37" s="55"/>
-    </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I38" s="57"/>
-      <c r="J38" s="55"/>
-    </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I39" s="57"/>
-      <c r="J39" s="55"/>
-    </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I40" s="57"/>
-      <c r="J40" s="55"/>
-    </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I41" s="57"/>
-      <c r="J41" s="55"/>
-    </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I42" s="57"/>
-      <c r="J42" s="55"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>91850713</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>65826240</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="80">
+        <v>3</v>
+      </c>
+      <c r="B34" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>110705061</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="36">
+        <v>4</v>
+      </c>
+      <c r="B35" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>64548982</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="36">
+        <v>5</v>
+      </c>
+      <c r="B36" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>76420640</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>33192162</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>37507681</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="80">
+        <v>3</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>27600130</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="36">
+        <v>4</v>
+      </c>
+      <c r="B40" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>23097627</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="36">
+        <v>5</v>
+      </c>
+      <c r="B41" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>24475059</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>33745848</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>32911708</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="80">
+        <v>3</v>
+      </c>
+      <c r="B44" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>33475625</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="36">
+        <v>4</v>
+      </c>
+      <c r="B45" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>19707788</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="36">
+        <v>5</v>
+      </c>
+      <c r="B46" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>31150964</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hyperinsulinemia.xlsx
+++ b/hyperinsulinemia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F24920-367D-7B48-AC1E-D491C32E28C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D36B9D8-A71B-D94C-82CA-8D6CDF9A8E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5480" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{CB62793C-C18D-BB4B-9365-60C12FC29B2B}"/>
+    <workbookView xWindow="-4060" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{CB62793C-C18D-BB4B-9365-60C12FC29B2B}"/>
   </bookViews>
   <sheets>
     <sheet name="clamp label" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="insulin measurement" sheetId="2" r:id="rId3"/>
     <sheet name="insulin_glycemia" sheetId="3" r:id="rId4"/>
     <sheet name="insulin_phenotypes" sheetId="4" r:id="rId5"/>
+    <sheet name="ITT_GTT" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="120">
   <si>
     <t>Compound</t>
   </si>
@@ -534,6 +535,21 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>ITT</t>
+  </si>
+  <si>
+    <t>GTT</t>
+  </si>
 </sst>
 </file>
 
@@ -543,7 +559,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -669,8 +685,14 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,6 +727,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1062,6 +1090,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1126,18 +1166,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4514,8 +4542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2963D6E-92F1-B34C-AC14-7B49349C23B2}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A2" zoomScale="158" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4544,8 +4572,8 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.25">
@@ -4573,20 +4601,20 @@
       <c r="D3" s="19">
         <v>10.68</v>
       </c>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="60" t="s">
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4603,29 +4631,29 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="69" t="s">
+      <c r="J4" s="63"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="59" t="s">
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="58" t="s">
+      <c r="P4" s="63"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59" t="s">
+      <c r="S4" s="63"/>
+      <c r="T4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="59"/>
+      <c r="U4" s="63"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -4645,35 +4673,35 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="L5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="72"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="66" t="s">
+      <c r="O5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="66"/>
+      <c r="P5" s="70"/>
       <c r="Q5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="58" t="s">
+      <c r="R5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59" t="s">
+      <c r="S5" s="63"/>
+      <c r="T5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="59"/>
+      <c r="U5" s="63"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -4700,24 +4728,24 @@
       <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="63"/>
+      <c r="K6" s="67"/>
       <c r="L6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="64" t="s">
+      <c r="M6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="64"/>
+      <c r="N6" s="68"/>
       <c r="O6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="62" t="s">
+      <c r="P6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="65"/>
+      <c r="Q6" s="69"/>
       <c r="R6" s="11" t="s">
         <v>3</v>
       </c>
@@ -7700,7 +7728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF15F113-FDB0-A54C-A206-F77D789D3737}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="165" workbookViewId="0">
+    <sheetView zoomScale="165" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -7995,7 +8023,7 @@
       <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -8015,7 +8043,7 @@
       <c r="A16" s="38">
         <v>5</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="38" t="s">
@@ -8335,7 +8363,7 @@
       <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -8355,7 +8383,7 @@
       <c r="A33" s="1">
         <v>2</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -8372,10 +8400,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="80">
+      <c r="A34" s="36">
         <v>3</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="58" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -8395,7 +8423,7 @@
       <c r="A35" s="36">
         <v>4</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -8415,7 +8443,7 @@
       <c r="A36" s="36">
         <v>5</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -8435,7 +8463,7 @@
       <c r="A37" s="1">
         <v>1</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -8455,7 +8483,7 @@
       <c r="A38" s="1">
         <v>2</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -8472,10 +8500,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="80">
+      <c r="A39" s="36">
         <v>3</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -8495,7 +8523,7 @@
       <c r="A40" s="36">
         <v>4</v>
       </c>
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -8515,7 +8543,7 @@
       <c r="A41" s="36">
         <v>5</v>
       </c>
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -8535,7 +8563,7 @@
       <c r="A42" s="1">
         <v>1</v>
       </c>
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -8555,7 +8583,7 @@
       <c r="A43" s="1">
         <v>2</v>
       </c>
-      <c r="B43" s="81" t="s">
+      <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -8572,10 +8600,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="80">
+      <c r="A44" s="36">
         <v>3</v>
       </c>
-      <c r="B44" s="81" t="s">
+      <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -8595,7 +8623,7 @@
       <c r="A45" s="36">
         <v>4</v>
       </c>
-      <c r="B45" s="81" t="s">
+      <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -8615,7 +8643,7 @@
       <c r="A46" s="36">
         <v>5</v>
       </c>
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -8651,17 +8679,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="78"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="1" t="s">
         <v>76</v>
       </c>
@@ -9145,4 +9173,947 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDE64BA-CD76-B54E-A448-3C53D3572576}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="59">
+        <v>0</v>
+      </c>
+      <c r="E1" s="59">
+        <v>15</v>
+      </c>
+      <c r="F1" s="59">
+        <v>30</v>
+      </c>
+      <c r="G1" s="59">
+        <v>60</v>
+      </c>
+      <c r="H1" s="59">
+        <v>120</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="59">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59">
+        <v>253</v>
+      </c>
+      <c r="E2" s="59">
+        <v>219</v>
+      </c>
+      <c r="F2" s="59">
+        <v>200</v>
+      </c>
+      <c r="G2" s="59">
+        <v>143</v>
+      </c>
+      <c r="H2" s="59">
+        <v>156</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="60">
+        <f>AVERAGE(D2:E2) * 15 + AVERAGE(E2:F2) * 15 + AVERAGE(F2:G2) * 30 + AVERAGE(G2:H2) * 60</f>
+        <v>20797.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="59">
+        <v>2</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59">
+        <v>312</v>
+      </c>
+      <c r="E3" s="59">
+        <v>303</v>
+      </c>
+      <c r="F3" s="59">
+        <v>278</v>
+      </c>
+      <c r="G3" s="59">
+        <v>240</v>
+      </c>
+      <c r="H3" s="59">
+        <v>199</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="60">
+        <f t="shared" ref="J3:J29" si="0">AVERAGE(D3:E3) * 15 + AVERAGE(E3:F3) * 15 + AVERAGE(F3:G3) * 30 + AVERAGE(G3:H3) * 60</f>
+        <v>29910</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="59">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59">
+        <v>240</v>
+      </c>
+      <c r="E4" s="59">
+        <v>308</v>
+      </c>
+      <c r="F4" s="59">
+        <v>312</v>
+      </c>
+      <c r="G4" s="59">
+        <v>229</v>
+      </c>
+      <c r="H4" s="59">
+        <v>166</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="60">
+        <f t="shared" si="0"/>
+        <v>28725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="59">
+        <v>4</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59">
+        <v>288</v>
+      </c>
+      <c r="E5" s="59">
+        <v>194</v>
+      </c>
+      <c r="F5" s="59">
+        <v>154</v>
+      </c>
+      <c r="G5" s="59">
+        <v>113</v>
+      </c>
+      <c r="H5" s="59">
+        <v>124</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="60">
+        <f t="shared" si="0"/>
+        <v>17340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59">
+        <v>203</v>
+      </c>
+      <c r="E6" s="59">
+        <v>198</v>
+      </c>
+      <c r="F6" s="59">
+        <v>161</v>
+      </c>
+      <c r="G6" s="59">
+        <v>147</v>
+      </c>
+      <c r="H6" s="59">
+        <v>163</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="60">
+        <f t="shared" si="0"/>
+        <v>19620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="59">
+        <v>6</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59">
+        <v>226</v>
+      </c>
+      <c r="E7" s="59">
+        <v>210</v>
+      </c>
+      <c r="F7" s="59">
+        <v>187</v>
+      </c>
+      <c r="G7" s="59">
+        <v>170</v>
+      </c>
+      <c r="H7" s="59">
+        <v>181</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="60">
+        <f t="shared" si="0"/>
+        <v>22132.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="59">
+        <v>7</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59">
+        <v>251</v>
+      </c>
+      <c r="E8" s="59">
+        <v>226</v>
+      </c>
+      <c r="F8" s="59">
+        <v>211</v>
+      </c>
+      <c r="G8" s="59">
+        <v>200</v>
+      </c>
+      <c r="H8" s="59">
+        <v>168</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="60">
+        <f t="shared" si="0"/>
+        <v>24060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="59">
+        <v>8</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59">
+        <v>244</v>
+      </c>
+      <c r="E9" s="59">
+        <v>217</v>
+      </c>
+      <c r="F9" s="59">
+        <v>175</v>
+      </c>
+      <c r="G9" s="59">
+        <v>177</v>
+      </c>
+      <c r="H9" s="59">
+        <v>189</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="60">
+        <f t="shared" si="0"/>
+        <v>22657.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="59">
+        <v>9</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59">
+        <v>253</v>
+      </c>
+      <c r="E10" s="59">
+        <v>197</v>
+      </c>
+      <c r="F10" s="59">
+        <v>150</v>
+      </c>
+      <c r="G10" s="59">
+        <v>121</v>
+      </c>
+      <c r="H10" s="59">
+        <v>165</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="60">
+        <f t="shared" si="0"/>
+        <v>18622.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="59">
+        <v>10</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59">
+        <v>231</v>
+      </c>
+      <c r="E11" s="59">
+        <v>182</v>
+      </c>
+      <c r="F11" s="59">
+        <v>171</v>
+      </c>
+      <c r="G11" s="59">
+        <v>163</v>
+      </c>
+      <c r="H11" s="59">
+        <v>178</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="60">
+        <f t="shared" si="0"/>
+        <v>20985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="59">
+        <v>11</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59">
+        <v>114</v>
+      </c>
+      <c r="E12" s="59">
+        <v>102</v>
+      </c>
+      <c r="F12" s="59">
+        <v>98</v>
+      </c>
+      <c r="G12" s="59">
+        <v>89</v>
+      </c>
+      <c r="H12" s="59">
+        <v>75</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" s="60">
+        <f t="shared" si="0"/>
+        <v>10845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="59">
+        <v>12</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59">
+        <v>169</v>
+      </c>
+      <c r="E13" s="59">
+        <v>125</v>
+      </c>
+      <c r="F13" s="59">
+        <v>104</v>
+      </c>
+      <c r="G13" s="59">
+        <v>72</v>
+      </c>
+      <c r="H13" s="59">
+        <v>77</v>
+      </c>
+      <c r="I13" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="60">
+        <f t="shared" si="0"/>
+        <v>11032.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="59">
+        <v>13</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59">
+        <v>148</v>
+      </c>
+      <c r="E14" s="59">
+        <v>122</v>
+      </c>
+      <c r="F14" s="59">
+        <v>99</v>
+      </c>
+      <c r="G14" s="59">
+        <v>81</v>
+      </c>
+      <c r="H14" s="59">
+        <v>77</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="60">
+        <f t="shared" si="0"/>
+        <v>11122.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="59">
+        <v>14</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59">
+        <v>240</v>
+      </c>
+      <c r="E15" s="59">
+        <v>147</v>
+      </c>
+      <c r="F15" s="59">
+        <v>94</v>
+      </c>
+      <c r="G15" s="59">
+        <v>60</v>
+      </c>
+      <c r="H15" s="59">
+        <v>76</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="60">
+        <f t="shared" si="0"/>
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="59">
+        <v>1</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="59">
+        <v>59</v>
+      </c>
+      <c r="D16" s="59">
+        <v>248</v>
+      </c>
+      <c r="E16" s="59">
+        <v>421</v>
+      </c>
+      <c r="F16" s="59">
+        <v>433</v>
+      </c>
+      <c r="G16" s="59">
+        <v>322</v>
+      </c>
+      <c r="H16" s="59">
+        <v>188</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="60">
+        <f t="shared" si="0"/>
+        <v>38047.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="59">
+        <v>2</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="59">
+        <v>59</v>
+      </c>
+      <c r="D17" s="59">
+        <v>279</v>
+      </c>
+      <c r="E17" s="59">
+        <v>475</v>
+      </c>
+      <c r="F17" s="59">
+        <v>533</v>
+      </c>
+      <c r="G17" s="59">
+        <v>458</v>
+      </c>
+      <c r="H17" s="59">
+        <v>226</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="60">
+        <f t="shared" si="0"/>
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="59">
+        <v>3</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="59">
+        <v>54.6</v>
+      </c>
+      <c r="D18" s="59">
+        <v>265</v>
+      </c>
+      <c r="E18" s="59">
+        <v>358</v>
+      </c>
+      <c r="F18" s="59">
+        <v>404</v>
+      </c>
+      <c r="G18" s="59">
+        <v>391</v>
+      </c>
+      <c r="H18" s="59">
+        <v>249</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="60">
+        <f t="shared" si="0"/>
+        <v>41512.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="59">
+        <v>4</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="59">
+        <v>62.7</v>
+      </c>
+      <c r="D19" s="59">
+        <v>340</v>
+      </c>
+      <c r="E19" s="59">
+        <v>556</v>
+      </c>
+      <c r="F19" s="61">
+        <v>600</v>
+      </c>
+      <c r="G19" s="61">
+        <v>600</v>
+      </c>
+      <c r="H19" s="59">
+        <v>437</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="60">
+        <f t="shared" si="0"/>
+        <v>64500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="59">
+        <v>5</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="59">
+        <v>44.5</v>
+      </c>
+      <c r="D20" s="59">
+        <v>200</v>
+      </c>
+      <c r="E20" s="59">
+        <v>302</v>
+      </c>
+      <c r="F20" s="59">
+        <v>394</v>
+      </c>
+      <c r="G20" s="59">
+        <v>384</v>
+      </c>
+      <c r="H20" s="59">
+        <v>285</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" s="60">
+        <f t="shared" si="0"/>
+        <v>40725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="59">
+        <v>6</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="59">
+        <v>44.3</v>
+      </c>
+      <c r="D21" s="59">
+        <v>192</v>
+      </c>
+      <c r="E21" s="59">
+        <v>274</v>
+      </c>
+      <c r="F21" s="59">
+        <v>324</v>
+      </c>
+      <c r="G21" s="59">
+        <v>278</v>
+      </c>
+      <c r="H21" s="59">
+        <v>195</v>
+      </c>
+      <c r="I21" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" s="60">
+        <f t="shared" si="0"/>
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="59">
+        <v>7</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="59">
+        <v>42.2</v>
+      </c>
+      <c r="D22" s="59">
+        <v>206</v>
+      </c>
+      <c r="E22" s="59">
+        <v>360</v>
+      </c>
+      <c r="F22" s="59">
+        <v>409</v>
+      </c>
+      <c r="G22" s="59">
+        <v>410</v>
+      </c>
+      <c r="H22" s="59">
+        <v>299</v>
+      </c>
+      <c r="I22" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="60">
+        <f t="shared" si="0"/>
+        <v>43567.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="59">
+        <v>8</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="59">
+        <v>47</v>
+      </c>
+      <c r="D23" s="59">
+        <v>219</v>
+      </c>
+      <c r="E23" s="59">
+        <v>332</v>
+      </c>
+      <c r="F23" s="59">
+        <v>457</v>
+      </c>
+      <c r="G23" s="59">
+        <v>425</v>
+      </c>
+      <c r="H23" s="59">
+        <v>333</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="60">
+        <f t="shared" si="0"/>
+        <v>46020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="59">
+        <v>9</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="59">
+        <v>47.5</v>
+      </c>
+      <c r="D24" s="59">
+        <v>197</v>
+      </c>
+      <c r="E24" s="59">
+        <v>274</v>
+      </c>
+      <c r="F24" s="59">
+        <v>331</v>
+      </c>
+      <c r="G24" s="59">
+        <v>333</v>
+      </c>
+      <c r="H24" s="59">
+        <v>289</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="60">
+        <f t="shared" si="0"/>
+        <v>36690</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="59">
+        <v>10</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="59">
+        <v>45</v>
+      </c>
+      <c r="D25" s="59">
+        <v>196</v>
+      </c>
+      <c r="E25" s="59">
+        <v>290</v>
+      </c>
+      <c r="F25" s="59">
+        <v>369</v>
+      </c>
+      <c r="G25" s="59">
+        <v>350</v>
+      </c>
+      <c r="H25" s="59">
+        <v>232</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="60">
+        <f t="shared" si="0"/>
+        <v>36832.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="59">
+        <v>11</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="59">
+        <v>30</v>
+      </c>
+      <c r="D26" s="59">
+        <v>126</v>
+      </c>
+      <c r="E26" s="59">
+        <v>233</v>
+      </c>
+      <c r="F26" s="59">
+        <v>218</v>
+      </c>
+      <c r="G26" s="59">
+        <v>188</v>
+      </c>
+      <c r="H26" s="59">
+        <v>138</v>
+      </c>
+      <c r="I26" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="60">
+        <f t="shared" si="0"/>
+        <v>21945</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="59">
+        <v>12</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="59">
+        <v>31.2</v>
+      </c>
+      <c r="D27" s="59">
+        <v>92</v>
+      </c>
+      <c r="E27" s="59">
+        <v>207</v>
+      </c>
+      <c r="F27" s="59">
+        <v>196</v>
+      </c>
+      <c r="G27" s="59">
+        <v>151</v>
+      </c>
+      <c r="H27" s="59">
+        <v>100</v>
+      </c>
+      <c r="I27" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" s="60">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="59">
+        <v>13</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="59">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D28" s="59">
+        <v>117</v>
+      </c>
+      <c r="E28" s="59">
+        <v>222</v>
+      </c>
+      <c r="F28" s="59">
+        <v>234</v>
+      </c>
+      <c r="G28" s="59">
+        <v>200</v>
+      </c>
+      <c r="H28" s="59">
+        <v>159</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" s="60">
+        <f t="shared" si="0"/>
+        <v>23242.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="59">
+        <v>14</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="59">
+        <v>28.6</v>
+      </c>
+      <c r="D29" s="59">
+        <v>165</v>
+      </c>
+      <c r="E29" s="59">
+        <v>277</v>
+      </c>
+      <c r="F29" s="59">
+        <v>323</v>
+      </c>
+      <c r="G29" s="59">
+        <v>250</v>
+      </c>
+      <c r="H29" s="59">
+        <v>157</v>
+      </c>
+      <c r="I29" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="60">
+        <f t="shared" si="0"/>
+        <v>28620</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hyperinsulinemia.xlsx
+++ b/hyperinsulinemia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D36B9D8-A71B-D94C-82CA-8D6CDF9A8E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06AFD8E-D5CA-6C44-B790-8C9633D4786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4060" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{CB62793C-C18D-BB4B-9365-60C12FC29B2B}"/>
+    <workbookView xWindow="-4060" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{CB62793C-C18D-BB4B-9365-60C12FC29B2B}"/>
   </bookViews>
   <sheets>
     <sheet name="clamp label" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="insulin_glycemia" sheetId="3" r:id="rId4"/>
     <sheet name="insulin_phenotypes" sheetId="4" r:id="rId5"/>
     <sheet name="ITT_GTT" sheetId="6" r:id="rId6"/>
+    <sheet name="immunoblot" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="129">
   <si>
     <t>Compound</t>
   </si>
@@ -550,16 +551,44 @@
   <si>
     <t>GTT</t>
   </si>
+  <si>
+    <t>ATGL/adipose protein</t>
+  </si>
+  <si>
+    <t>ATGL/animal</t>
+  </si>
+  <si>
+    <t>HSL/protein</t>
+  </si>
+  <si>
+    <t>HSL/animal</t>
+  </si>
+  <si>
+    <t>relative amount</t>
+  </si>
+  <si>
+    <t>normalization</t>
+  </si>
+  <si>
+    <t>enzyme</t>
+  </si>
+  <si>
+    <t>ATGL</t>
+  </si>
+  <si>
+    <t>HSL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="175" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -688,6 +717,17 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -939,7 +979,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1102,34 +1142,10 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1162,12 +1178,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4572,8 +4617,8 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.25">
@@ -4601,20 +4646,20 @@
       <c r="D3" s="19">
         <v>10.68</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="64" t="s">
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4635,18 +4680,18 @@
         <v>11</v>
       </c>
       <c r="J4" s="63"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73" t="s">
+      <c r="K4" s="64"/>
+      <c r="L4" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
       <c r="O4" s="63" t="s">
         <v>12</v>
       </c>
       <c r="P4" s="63"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="62" t="s">
+      <c r="Q4" s="73"/>
+      <c r="R4" s="75" t="s">
         <v>13</v>
       </c>
       <c r="S4" s="63"/>
@@ -4673,28 +4718,28 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="75" t="s">
+      <c r="L5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="76"/>
+      <c r="M5" s="68"/>
       <c r="N5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="70" t="s">
+      <c r="O5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="70"/>
+      <c r="P5" s="74"/>
       <c r="Q5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="62" t="s">
+      <c r="R5" s="75" t="s">
         <v>5</v>
       </c>
       <c r="S5" s="63"/>
@@ -4728,24 +4773,24 @@
       <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="67"/>
+      <c r="K6" s="79"/>
       <c r="L6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="68" t="s">
+      <c r="M6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="68"/>
+      <c r="N6" s="80"/>
       <c r="O6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="P6" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="69"/>
+      <c r="Q6" s="81"/>
       <c r="R6" s="11" t="s">
         <v>3</v>
       </c>
@@ -5713,13 +5758,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:P5"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="T5:U5"/>
@@ -5729,6 +5767,13 @@
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="R5:S5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9179,7 +9224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDE64BA-CD76-B54E-A448-3C53D3572576}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -10116,4 +10161,1159 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB13E34F-5EA2-0040-9C53-E33004233BBB}">
+  <dimension ref="A1:D81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="86">
+        <v>1.712091142</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="86">
+        <v>0.92612604300000001</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="86">
+        <v>2.3270308059999998</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="86">
+        <v>1.4363874679999999</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="86">
+        <v>0.56855173400000003</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="86">
+        <v>0.61064726899999999</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="86">
+        <v>0.331960851</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="86">
+        <v>0.41904282500000001</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="86">
+        <v>0.66816186300000002</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="86">
+        <v>2.5141879519999999</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="86">
+        <v>0.722984399</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="86">
+        <v>1.0115460439999999</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="86">
+        <v>3.602742337</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="86">
+        <v>0.36853598300000001</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="86">
+        <v>1.2305247699999999</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="86">
+        <v>0.52555707600000001</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="86">
+        <v>0.50605426499999995</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="86">
+        <v>0.48742650100000001</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="86">
+        <v>0.33992632900000003</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="86">
+        <v>2.950730251</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="86">
+        <v>1.4381825130000001</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="86">
+        <v>2.2786294370000002</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="86">
+        <v>3.9894042320000001</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="86">
+        <v>0.72036074900000002</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="86">
+        <v>1.91</v>
+      </c>
+      <c r="C26" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="86">
+        <v>0.93</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="86">
+        <v>2.98</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="86">
+        <v>1.39</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="86">
+        <v>0.48</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="86">
+        <v>0.39</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="86">
+        <v>0.22</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="86">
+        <v>0.23</v>
+      </c>
+      <c r="C33" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="86">
+        <v>0.48</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="86">
+        <v>5.35</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="86">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C36" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="86">
+        <v>2.88</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="86">
+        <v>8.02</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="86">
+        <v>2.12</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="86">
+        <v>3.21</v>
+      </c>
+      <c r="C40" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="86">
+        <v>1.76</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="86">
+        <v>1.62</v>
+      </c>
+      <c r="C42" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="86">
+        <v>1.41</v>
+      </c>
+      <c r="C43" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="86">
+        <v>1.75</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="86">
+        <v>13.07</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="86">
+        <v>5.41</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="86">
+        <v>8.48</v>
+      </c>
+      <c r="C47" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="86">
+        <v>15.86</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="86">
+        <v>2.96</v>
+      </c>
+      <c r="C49" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="86">
+        <v>1.17</v>
+      </c>
+      <c r="C50" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="86">
+        <v>1.46</v>
+      </c>
+      <c r="C51" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="86">
+        <v>0.62</v>
+      </c>
+      <c r="C52" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="86">
+        <v>0.89</v>
+      </c>
+      <c r="C53" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="86">
+        <v>0.86</v>
+      </c>
+      <c r="C54" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="86">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C55" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="86">
+        <v>1.4</v>
+      </c>
+      <c r="C56" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="86">
+        <v>0.8</v>
+      </c>
+      <c r="C57" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="86">
+        <v>0.98</v>
+      </c>
+      <c r="C58" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="86">
+        <v>0.98</v>
+      </c>
+      <c r="C59" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="86">
+        <v>0.51</v>
+      </c>
+      <c r="C60" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="86">
+        <v>1.81</v>
+      </c>
+      <c r="C61" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="86">
+        <v>1.43</v>
+      </c>
+      <c r="C62" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="86">
+        <v>1.42</v>
+      </c>
+      <c r="C63" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="86">
+        <v>3.22</v>
+      </c>
+      <c r="C64" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="86">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C65" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="86">
+        <v>1.43</v>
+      </c>
+      <c r="C66" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="86">
+        <v>1.35</v>
+      </c>
+      <c r="C67" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="86">
+        <v>0.59</v>
+      </c>
+      <c r="C68" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="86">
+        <v>0.71</v>
+      </c>
+      <c r="C69" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="86">
+        <v>0.91</v>
+      </c>
+      <c r="C70" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="86">
+        <v>4.74</v>
+      </c>
+      <c r="C71" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="86">
+        <v>5.34</v>
+      </c>
+      <c r="C72" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="86">
+        <v>3.92</v>
+      </c>
+      <c r="C73" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="86">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C74" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="86">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C75" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="86">
+        <v>3.85</v>
+      </c>
+      <c r="C76" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="86">
+        <v>11.71</v>
+      </c>
+      <c r="C77" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="86">
+        <v>7.89</v>
+      </c>
+      <c r="C78" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="86">
+        <v>7.74</v>
+      </c>
+      <c r="C79" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="86">
+        <v>18.73</v>
+      </c>
+      <c r="C80" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" s="86">
+        <v>13.57</v>
+      </c>
+      <c r="C81" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hyperinsulinemia.xlsx
+++ b/hyperinsulinemia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boyuan/Desktop/Harvard/Manuscript/1. fluxomics/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06AFD8E-D5CA-6C44-B790-8C9633D4786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159ED38B-94CE-FE4B-BBF8-7A2F95AA8D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4060" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{CB62793C-C18D-BB4B-9365-60C12FC29B2B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{CB62793C-C18D-BB4B-9365-60C12FC29B2B}"/>
   </bookViews>
   <sheets>
     <sheet name="clamp label" sheetId="1" r:id="rId1"/>
@@ -583,10 +583,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="175" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -993,9 +995,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1006,9 +1005,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1142,10 +1138,39 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1178,41 +1203,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4587,8 +4589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2963D6E-92F1-B34C-AC14-7B49349C23B2}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="158" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="227" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4601,8 +4603,8 @@
     <col min="6" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -4617,9 +4619,9 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4643,23 +4645,23 @@
       <c r="C3" s="1">
         <v>150</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>10.68</v>
       </c>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="76" t="s">
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4676,35 +4678,35 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="65" t="s">
+      <c r="J4" s="64"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="63" t="s">
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="75" t="s">
+      <c r="P4" s="64"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63" t="s">
+      <c r="S4" s="64"/>
+      <c r="T4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="63"/>
+      <c r="U4" s="64"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <f>B4*B3</f>
         <v>7791.2999999999993</v>
       </c>
@@ -4718,41 +4720,41 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="71"/>
+      <c r="K5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="6" t="s">
+      <c r="M5" s="77"/>
+      <c r="N5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="74" t="s">
+      <c r="O5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="13" t="s">
+      <c r="P5" s="71"/>
+      <c r="Q5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="75" t="s">
+      <c r="R5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63" t="s">
+      <c r="S5" s="64"/>
+      <c r="T5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="63"/>
+      <c r="U5" s="64"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <f>B5*6</f>
         <v>46747.799999999996</v>
       </c>
@@ -4773,25 +4775,25 @@
       <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="79"/>
-      <c r="L6" s="12" t="s">
+      <c r="K6" s="68"/>
+      <c r="L6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="80" t="s">
+      <c r="M6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="80"/>
+      <c r="N6" s="69"/>
       <c r="O6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="78" t="s">
+      <c r="P6" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="11" t="s">
+      <c r="Q6" s="70"/>
+      <c r="R6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="S6" s="3" t="s">
@@ -4812,52 +4814,52 @@
       <c r="H7" s="4">
         <v>28.5</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="86">
         <v>5.5787536300000003E-2</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="86">
         <v>5.28372363E-2</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="85">
         <v>0.19467180519999999</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="12">
         <f t="shared" ref="L7:M11" si="0">(1-I7)*$C$6/I7</f>
         <v>50267.697826064417</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f t="shared" si="0"/>
         <v>53240.358602726541</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <f>(1-K7)*$D$6/K7</f>
         <v>4241.4302919534639</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <f t="shared" ref="O7:Q11" si="1">L7/$H7</f>
         <v>1763.7788710899795</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <f t="shared" si="1"/>
         <v>1868.0827579904048</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="21">
         <f t="shared" si="1"/>
         <v>148.82211550713907</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="20">
         <f t="shared" ref="R7:S11" si="2">(L7-$B$6)</f>
         <v>3519.8978260644217</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="7">
         <f t="shared" si="2"/>
         <v>6492.5586027265454</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <f t="shared" ref="T7:U11" si="3">R7/$H7</f>
         <v>123.50518687945339</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <f t="shared" si="3"/>
         <v>227.80907377987879</v>
       </c>
@@ -4869,52 +4871,52 @@
       <c r="H8" s="4">
         <v>25</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="86">
         <v>5.4766491700000003E-2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="86">
         <v>5.5634749900000002E-2</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="85">
         <v>0.2371127945</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="12">
         <f t="shared" si="0"/>
         <v>51260.240203609756</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <f t="shared" si="0"/>
         <v>50413.901344724109</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <f>(1-K8)*$D$6/K8</f>
         <v>3298.7380360659536</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <f t="shared" si="1"/>
         <v>2050.4096081443904</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <f t="shared" si="1"/>
         <v>2016.5560537889644</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="21">
         <f t="shared" si="1"/>
         <v>131.94952144263814</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="20">
         <f t="shared" si="2"/>
         <v>4512.4402036097599</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="7">
         <f t="shared" si="2"/>
         <v>3666.101344724113</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="7">
         <f t="shared" si="3"/>
         <v>180.4976081443904</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="7">
         <f t="shared" si="3"/>
         <v>146.64405378896453</v>
       </c>
@@ -4926,52 +4928,52 @@
       <c r="H9" s="4">
         <v>28.4</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="86">
         <v>5.3955606400000002E-2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="86">
         <v>5.4436837100000003E-2</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="85">
         <v>0.18379338789999999</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="12">
         <f t="shared" si="0"/>
         <v>52075.252906285568</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <f t="shared" si="0"/>
         <v>51588.643709298085</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <f>(1-K9)*$D$6/K9</f>
         <v>4553.157895479917</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <f t="shared" si="1"/>
         <v>1833.6356657142808</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <f t="shared" si="1"/>
         <v>1816.5015390597919</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="21">
         <f t="shared" si="1"/>
         <v>160.32246110844778</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="20">
         <f t="shared" si="2"/>
         <v>5327.4529062855727</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="7">
         <f t="shared" si="2"/>
         <v>4840.8437092980894</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="7">
         <f t="shared" si="3"/>
         <v>187.58636993963285</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="7">
         <f t="shared" si="3"/>
         <v>170.45224328514399</v>
       </c>
@@ -4983,52 +4985,52 @@
       <c r="H10" s="4">
         <v>25.1</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="86">
         <v>5.0760371800000002E-2</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="86">
         <v>5.5846535900000001E-2</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="85">
         <v>0.32212808580000002</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="12">
         <f t="shared" si="0"/>
         <v>55540.209730181683</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <f t="shared" si="0"/>
         <v>50211.454357673065</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <f>(1-K10)*$D$6/K10</f>
         <v>2157.5533051237471</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <f t="shared" si="1"/>
         <v>2212.7573597681944</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <f t="shared" si="1"/>
         <v>2000.4563489112775</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="21">
         <f t="shared" si="1"/>
         <v>85.958299008914224</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="20">
         <f t="shared" si="2"/>
         <v>8792.4097301816873</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="7">
         <f t="shared" si="2"/>
         <v>3463.6543576730692</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="7">
         <f t="shared" si="3"/>
         <v>350.29520837377237</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="7">
         <f t="shared" si="3"/>
         <v>137.99419751685534</v>
       </c>
@@ -5040,52 +5042,52 @@
       <c r="H11" s="4">
         <v>25.5</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="86">
         <v>5.4612273199999999E-2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="86">
         <v>5.6463182000000001E-2</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="85">
         <v>0.26383384050000003</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="13">
         <f t="shared" si="0"/>
         <v>51413.379888314194</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="14">
         <f t="shared" si="0"/>
         <v>49630.648684659682</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="14">
         <f>(1-K11)*$D$6/K11</f>
         <v>2860.802232881721</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="15">
         <f t="shared" si="1"/>
         <v>2016.2109760123212</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="15">
         <f t="shared" si="1"/>
         <v>1946.2999484180268</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="22">
         <f t="shared" si="1"/>
         <v>112.1883228581067</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="20">
         <f t="shared" si="2"/>
         <v>4665.5798883141979</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="7">
         <f t="shared" si="2"/>
         <v>2882.8486846596861</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="7">
         <f t="shared" si="3"/>
         <v>182.96391718879207</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="7">
         <f t="shared" si="3"/>
         <v>113.0528895944975</v>
       </c>
@@ -5136,7 +5138,7 @@
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <f>O7</f>
         <v>1763.7788710899795</v>
       </c>
@@ -5157,7 +5159,7 @@
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <f>O8</f>
         <v>2050.4096081443904</v>
       </c>
@@ -5178,7 +5180,7 @@
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <f>O9</f>
         <v>1833.6356657142808</v>
       </c>
@@ -5199,7 +5201,7 @@
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <f>O10</f>
         <v>2212.7573597681944</v>
       </c>
@@ -5217,17 +5219,17 @@
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="24">
         <f>O11</f>
         <v>2016.2109760123212</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="23" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5241,7 +5243,7 @@
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <f>P7</f>
         <v>1868.0827579904048</v>
       </c>
@@ -5262,7 +5264,7 @@
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <f>P8</f>
         <v>2016.5560537889644</v>
       </c>
@@ -5283,7 +5285,7 @@
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="19">
         <f>P9</f>
         <v>1816.5015390597919</v>
       </c>
@@ -5304,7 +5306,7 @@
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="19">
         <f>P10</f>
         <v>2000.4563489112775</v>
       </c>
@@ -5322,17 +5324,17 @@
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="24">
         <f>P11</f>
         <v>1946.2999484180268</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="23" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5346,7 +5348,7 @@
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="19">
         <f>Q7</f>
         <v>148.82211550713907</v>
       </c>
@@ -5367,7 +5369,7 @@
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="19">
         <f>Q8</f>
         <v>131.94952144263814</v>
       </c>
@@ -5388,7 +5390,7 @@
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="19">
         <f>Q9</f>
         <v>160.32246110844778</v>
       </c>
@@ -5409,7 +5411,7 @@
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="19">
         <f>Q10</f>
         <v>85.958299008914224</v>
       </c>
@@ -5430,7 +5432,7 @@
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="19">
         <f>Q11</f>
         <v>112.1883228581067</v>
       </c>
@@ -5451,7 +5453,7 @@
       <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="19">
         <f>T7</f>
         <v>123.50518687945339</v>
       </c>
@@ -5472,7 +5474,7 @@
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="19">
         <f>T8</f>
         <v>180.4976081443904</v>
       </c>
@@ -5493,7 +5495,7 @@
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="19">
         <f>T9</f>
         <v>187.58636993963285</v>
       </c>
@@ -5514,7 +5516,7 @@
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="19">
         <f>T10</f>
         <v>350.29520837377237</v>
       </c>
@@ -5532,14 +5534,14 @@
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="19">
         <f>T11</f>
         <v>182.96391718879207</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -5556,7 +5558,7 @@
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="19">
         <f>U7</f>
         <v>227.80907377987879</v>
       </c>
@@ -5577,7 +5579,7 @@
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="19">
         <f>U8</f>
         <v>146.64405378896453</v>
       </c>
@@ -5598,7 +5600,7 @@
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="19">
         <f>U9</f>
         <v>170.45224328514399</v>
       </c>
@@ -5619,7 +5621,7 @@
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="19">
         <f>U10</f>
         <v>137.99419751685534</v>
       </c>
@@ -5637,14 +5639,14 @@
       <c r="B40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="19">
         <f>U11</f>
         <v>113.0528895944975</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -5661,7 +5663,7 @@
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="19">
         <f>Q7</f>
         <v>148.82211550713907</v>
       </c>
@@ -5682,7 +5684,7 @@
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="19">
         <f>Q8</f>
         <v>131.94952144263814</v>
       </c>
@@ -5703,7 +5705,7 @@
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="19">
         <f>Q9</f>
         <v>160.32246110844778</v>
       </c>
@@ -5724,7 +5726,7 @@
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="19">
         <f>Q10</f>
         <v>85.958299008914224</v>
       </c>
@@ -5736,28 +5738,35 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="24">
         <f>Q11</f>
         <v>112.1883228581067</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="23" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:P5"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="T5:U5"/>
@@ -5767,13 +5776,6 @@
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="R5:S5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5796,863 +5798,863 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="33" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="53">
         <v>32216490</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="53">
         <v>27213360</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="53">
         <v>29317362</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2" s="53">
         <v>29518696</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="53">
         <v>32218050</v>
       </c>
-      <c r="I2" s="55">
+      <c r="I2" s="53">
         <v>32760842</v>
       </c>
-      <c r="J2" s="55">
+      <c r="J2" s="53">
         <v>30438502</v>
       </c>
-      <c r="K2" s="55">
+      <c r="K2" s="53">
         <v>32258050</v>
       </c>
-      <c r="L2" s="55">
+      <c r="L2" s="53">
         <v>29478174</v>
       </c>
-      <c r="M2" s="55">
+      <c r="M2" s="53">
         <v>34198772</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="53">
         <v>2368691.75</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="53">
         <v>2068149.5</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="53">
         <v>2206694</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="53">
         <v>2223006.5</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="53">
         <v>2375914</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="53">
         <v>2490109.25</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3" s="53">
         <v>2292353.25</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="53">
         <v>2458467.75</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="53">
         <v>2185378.25</v>
       </c>
-      <c r="M3" s="55">
+      <c r="M3" s="53">
         <v>2535433.75</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="53">
         <v>383177.72</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="53">
         <v>295141.21999999997</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="53">
         <v>332079.65999999997</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <v>303032.28000000003</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="53">
         <v>340101.97</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="53">
         <v>358118.16</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="53">
         <v>325595.59000000003</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="53">
         <v>340713.09</v>
       </c>
-      <c r="L4" s="55">
+      <c r="L4" s="53">
         <v>283052.34000000003</v>
       </c>
-      <c r="M4" s="55">
+      <c r="M4" s="53">
         <v>388680.25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="53">
         <v>70365.2</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="53">
         <v>68593.81</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="53">
         <v>67065.52</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="53">
         <v>75428.13</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="53">
         <v>84806.65</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="53">
         <v>99769.9</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="53">
         <v>97998.12</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="53">
         <v>79256.800000000003</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="53">
         <v>61767.03</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="53">
         <v>86849.8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="53">
         <v>17762.509999999998</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="53">
         <v>13243.93</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="53">
         <v>12900.06</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="53">
         <v>19391.36</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="53">
         <v>13214.44</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="53">
         <v>21565.48</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="53">
         <v>19456.88</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="53">
         <v>8951.27</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="53">
         <v>12103.43</v>
       </c>
-      <c r="M6" s="55">
+      <c r="M6" s="53">
         <v>16049.32</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="53">
         <v>43362.03</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="53">
         <v>40665.14</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="53">
         <v>37099.46</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="53">
         <v>35939.620000000003</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="53">
         <v>39860.800000000003</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="53">
         <v>43535.63</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="53">
         <v>33227.54</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="53">
         <v>31738.83</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="53">
         <v>38773.1</v>
       </c>
-      <c r="M7" s="55">
+      <c r="M7" s="53">
         <v>33899.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="53">
         <v>1876226.38</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="53">
         <v>1542850.5</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="53">
         <v>1641695.12</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="53">
         <v>1539191.88</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="53">
         <v>1829853.38</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="53">
         <v>1774623.62</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="53">
         <v>1746799.38</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="53">
         <v>1822462.5</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="53">
         <v>1721808.62</v>
       </c>
-      <c r="M8" s="55">
+      <c r="M8" s="53">
         <v>2013274.12</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="54">
         <v>27711978</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="54">
         <v>31346726</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="54">
         <v>23056938</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="54">
         <v>19312632</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="54">
         <v>20458122</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="54">
         <v>28331750</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="54">
         <v>27472800</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="54">
         <v>27942658</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="54">
         <v>16463392</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="54">
         <v>26022506</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="53">
         <v>4891545.5</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="53">
         <v>5347600</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="53">
         <v>3987554.75</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="53">
         <v>3247285.75</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="53">
         <v>3465467.25</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="53">
         <v>4081369.25</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="53">
         <v>4978370</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="53">
         <v>4978891.5</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="53">
         <v>2849643.75</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="53">
         <v>4503459.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="53">
         <v>929396.69</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="53">
         <v>515741.66</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="53">
         <v>655925.88</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="53">
         <v>274413.03000000003</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="53">
         <v>401466.62</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="53">
         <v>839525.81</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="53">
         <v>687655.69</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="53">
         <v>908186.06</v>
       </c>
-      <c r="L11" s="55">
+      <c r="L11" s="53">
         <v>279238.53000000003</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="53">
         <v>668999.18999999994</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="53">
         <v>152195.32999999999</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="53">
         <v>49444.33</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="53">
         <v>84023.15</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="53">
         <v>6198.3</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="53">
         <v>40792.57</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="53">
         <v>111167.94</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="53">
         <v>74615.62</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="53">
         <v>147168.39000000001</v>
       </c>
-      <c r="L12" s="55">
+      <c r="L12" s="53">
         <v>30071.759999999998</v>
       </c>
-      <c r="M12" s="55">
+      <c r="M12" s="53">
         <v>95467.27</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="53">
         <v>76773.119999999995</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="53">
         <v>17138.41</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="53">
         <v>50852.11</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="53">
         <v>0</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="53">
         <v>14469.65</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="53">
         <v>60568.98</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="53">
         <v>62019.41</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="53">
         <v>69413.289999999994</v>
       </c>
-      <c r="L13" s="55">
+      <c r="L13" s="53">
         <v>6640.51</v>
       </c>
-      <c r="M13" s="55">
+      <c r="M13" s="53">
         <v>41364.83</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="53">
         <v>9470.06</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="53">
         <v>0</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="53">
         <v>0</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="53">
         <v>0</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="53">
         <v>0</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="53">
         <v>13937.98</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="53">
         <v>0</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="53">
         <v>10091.69</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14" s="53">
         <v>0</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="53">
         <v>0</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="53">
         <v>0</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="53">
         <v>0</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="53">
         <v>0</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="53">
         <v>0</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="53">
         <v>0</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="53">
         <v>0</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="53">
         <v>7668.39</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="53">
         <v>0</v>
       </c>
-      <c r="M15" s="55">
+      <c r="M15" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="53">
         <v>0</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="53">
         <v>0</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="53">
         <v>0</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="53">
         <v>0</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="53">
         <v>0</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="53">
         <v>0</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="53">
         <v>0</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="53">
         <v>7470.44</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="53">
         <v>0</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="53">
         <v>0</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="53">
         <v>0</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="53">
         <v>0</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="53">
         <v>0</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="53">
         <v>0</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="53">
         <v>0</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="53">
         <v>0</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="53">
         <v>0</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="53">
         <v>5066.34</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="53">
         <v>9622.2099999999991</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="53">
         <v>0</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="53">
         <v>0</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="53">
         <v>0</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="53">
         <v>0</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="53">
         <v>0</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="53">
         <v>19804.84</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J18" s="53">
         <v>48766.22</v>
       </c>
-      <c r="K18" s="55">
+      <c r="K18" s="53">
         <v>10187.450000000001</v>
       </c>
-      <c r="L18" s="55">
+      <c r="L18" s="53">
         <v>24447.72</v>
       </c>
-      <c r="M18" s="55">
+      <c r="M18" s="53">
         <v>28198.91</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="53">
         <v>0</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="53">
         <v>0</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="53">
         <v>0</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="53">
         <v>0</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="53">
         <v>0</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="53">
         <v>167695.39000000001</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="53">
         <v>205944.12</v>
       </c>
-      <c r="K19" s="55">
+      <c r="K19" s="53">
         <v>139475.23000000001</v>
       </c>
-      <c r="L19" s="55">
+      <c r="L19" s="53">
         <v>176161.31</v>
       </c>
-      <c r="M19" s="55">
+      <c r="M19" s="53">
         <v>221275.83</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="53">
         <v>0</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="53">
         <v>0</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="53">
         <v>0</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="53">
         <v>0</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="53">
         <v>0</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="53">
         <v>1222357.5</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="53">
         <v>1530214.12</v>
       </c>
-      <c r="K20" s="55">
+      <c r="K20" s="53">
         <v>1062362</v>
       </c>
-      <c r="L20" s="55">
+      <c r="L20" s="53">
         <v>1346624.12</v>
       </c>
-      <c r="M20" s="55">
+      <c r="M20" s="53">
         <v>1664868</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="53">
         <v>0</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="53">
         <v>0</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="53">
         <v>0</v>
       </c>
-      <c r="G21" s="55">
+      <c r="G21" s="53">
         <v>0</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="53">
         <v>0</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="53">
         <v>6734711.5</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J21" s="53">
         <v>8454880</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="53">
         <v>6304825.5</v>
       </c>
-      <c r="L21" s="55">
+      <c r="L21" s="53">
         <v>7772108</v>
       </c>
-      <c r="M21" s="55">
+      <c r="M21" s="53">
         <v>9237367</v>
       </c>
     </row>
@@ -6672,12 +6674,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6696,16 +6698,16 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="31"/>
+      <c r="W4" s="29"/>
       <c r="X4">
         <v>0.1588</v>
       </c>
@@ -6717,149 +6719,149 @@
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J6" s="27"/>
-      <c r="K6" s="27" t="s">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27" t="s">
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28" t="s">
+      <c r="J7" s="25"/>
+      <c r="K7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="26">
         <v>1</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="26">
         <v>2</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="26">
         <v>3</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="26">
         <v>4</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="26">
         <v>5</v>
       </c>
-      <c r="Q7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="28" t="s">
+      <c r="Q7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="26">
         <v>1</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="26">
         <v>2</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="26">
         <v>3</v>
       </c>
-      <c r="X7" s="28">
+      <c r="X7" s="26">
         <v>4</v>
       </c>
-      <c r="Y7" s="28">
+      <c r="Y7" s="26">
         <v>5</v>
       </c>
-      <c r="Z7" s="27"/>
+      <c r="Z7" s="25"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="27">
         <v>1</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="27">
         <v>2</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>3</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="27">
         <v>4</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="27">
         <v>5</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="27">
         <v>6</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27" t="s">
+      <c r="J8" s="25"/>
+      <c r="K8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="25">
         <v>0.3755</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="25">
         <v>0.1865</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="25">
         <v>8.0500000000000016E-2</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="25">
         <v>5.8499999999999996E-2</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="25">
         <v>7.2500000000000009E-2</v>
       </c>
-      <c r="Q8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27" t="s">
+      <c r="Q8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="25">
         <v>0.3755</v>
       </c>
-      <c r="V8" s="27">
+      <c r="V8" s="25">
         <v>0.1865</v>
       </c>
-      <c r="W8" s="27">
+      <c r="W8" s="25">
         <v>8.0500000000000016E-2</v>
       </c>
-      <c r="X8" s="27">
+      <c r="X8" s="25">
         <v>5.8499999999999996E-2</v>
       </c>
-      <c r="Y8" s="27">
+      <c r="Y8" s="25">
         <v>7.2500000000000009E-2</v>
       </c>
-      <c r="Z8" s="27"/>
+      <c r="Z8" s="25"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -6880,46 +6882,46 @@
       <c r="F9" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27" t="s">
+      <c r="J9" s="25"/>
+      <c r="K9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="25">
         <v>3.3904999999999998</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="25">
         <v>3.3815</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="25">
         <v>3.4994999999999998</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="25">
         <v>3.4744999999999999</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="25">
         <v>3.4184999999999999</v>
       </c>
-      <c r="Q9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27" t="s">
+      <c r="Q9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="25">
         <v>3.3904999999999998</v>
       </c>
-      <c r="V9" s="27">
+      <c r="V9" s="25">
         <v>3.3815</v>
       </c>
-      <c r="W9" s="27">
+      <c r="W9" s="25">
         <v>3.4994999999999998</v>
       </c>
-      <c r="X9" s="27">
+      <c r="X9" s="25">
         <v>3.4744999999999999</v>
       </c>
-      <c r="Y9" s="27">
+      <c r="Y9" s="25">
         <v>3.4184999999999999</v>
       </c>
-      <c r="Z9" s="27"/>
+      <c r="Z9" s="25"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -6940,46 +6942,46 @@
       <c r="F10" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="25">
         <v>3.4285000000000001</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="25">
         <v>3.3784999999999998</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="25">
         <v>3.3795000000000002</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="25">
         <v>3.3675000000000002</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="25">
         <v>3.3845000000000001</v>
       </c>
-      <c r="Q10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27" t="s">
+      <c r="Q10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="27">
+      <c r="U10" s="25">
         <v>3.4285000000000001</v>
       </c>
-      <c r="V10" s="27">
+      <c r="V10" s="25">
         <v>3.3784999999999998</v>
       </c>
-      <c r="W10" s="27">
+      <c r="W10" s="25">
         <v>3.3795000000000002</v>
       </c>
-      <c r="X10" s="27">
+      <c r="X10" s="25">
         <v>3.3675000000000002</v>
       </c>
-      <c r="Y10" s="27">
+      <c r="Y10" s="25">
         <v>3.3845000000000001</v>
       </c>
-      <c r="Z10" s="27"/>
+      <c r="Z10" s="25"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -7000,22 +7002,22 @@
       <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -7036,22 +7038,22 @@
       <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -7072,26 +7074,26 @@
       <c r="F13" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27" t="s">
+      <c r="J13" s="25"/>
+      <c r="K13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27" t="s">
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -7112,46 +7114,46 @@
       <c r="F14" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28" t="s">
+      <c r="J14" s="25"/>
+      <c r="K14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="26">
         <v>1</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="26">
         <v>2</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="26">
         <v>3</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="26">
         <v>4</v>
       </c>
-      <c r="P14" s="28">
+      <c r="P14" s="26">
         <v>5</v>
       </c>
-      <c r="Q14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="28" t="s">
+      <c r="Q14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="U14" s="28">
+      <c r="U14" s="26">
         <v>1</v>
       </c>
-      <c r="V14" s="28">
+      <c r="V14" s="26">
         <v>2</v>
       </c>
-      <c r="W14" s="28">
+      <c r="W14" s="26">
         <v>3</v>
       </c>
-      <c r="X14" s="28">
+      <c r="X14" s="26">
         <v>4</v>
       </c>
-      <c r="Y14" s="28">
+      <c r="Y14" s="26">
         <v>5</v>
       </c>
-      <c r="Z14" s="27"/>
+      <c r="Z14" s="25"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -7172,56 +7174,56 @@
       <c r="F15" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="25">
         <f>(L8 - $G$510 ) / $F$51</f>
         <v>2.4542483660130721</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="25">
         <f t="shared" ref="M15:P15" si="0">(M8+0.02753)/0.153</f>
         <v>1.3988888888888888</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="25">
         <f t="shared" si="0"/>
         <v>0.70607843137254911</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="25">
         <f t="shared" si="0"/>
         <v>0.56228758169934634</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="25">
         <f t="shared" si="0"/>
         <v>0.65379084967320267</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27" t="s">
+      <c r="Q15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="U15" s="27">
+      <c r="U15" s="25">
         <f>(U8 - $Y$4   ) / $X$4</f>
         <v>2.8683879093198996</v>
       </c>
-      <c r="V15" s="27">
+      <c r="V15" s="25">
         <f t="shared" ref="V15:Y15" si="1">(V8 - $Y$4   ) / $X$4</f>
         <v>1.6782115869017633</v>
       </c>
-      <c r="W15" s="27">
+      <c r="W15" s="25">
         <f t="shared" si="1"/>
         <v>1.0107052896725444</v>
       </c>
-      <c r="X15" s="27">
+      <c r="X15" s="25">
         <f t="shared" si="1"/>
         <v>0.87216624685138544</v>
       </c>
-      <c r="Y15" s="27">
+      <c r="Y15" s="25">
         <f t="shared" si="1"/>
         <v>0.96032745591939561</v>
       </c>
-      <c r="Z15" s="27"/>
+      <c r="Z15" s="25"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -7242,165 +7244,165 @@
       <c r="F16" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27" t="s">
+      <c r="J16" s="25"/>
+      <c r="K16" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="25">
         <f t="shared" ref="L16:L17" si="2">(L9 - $G$510 ) / $F$51</f>
         <v>22.160130718954246</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="25">
         <f t="shared" ref="M16:P17" si="3">(M9+0.02753)/0.153</f>
         <v>22.281241830065358</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="25">
         <f t="shared" si="3"/>
         <v>23.052483660130719</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="25">
         <f t="shared" si="3"/>
         <v>22.889084967320262</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="25">
         <f t="shared" si="3"/>
         <v>22.523071895424838</v>
       </c>
-      <c r="Q16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27" t="s">
+      <c r="Q16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U16" s="25">
         <f t="shared" ref="U16:Y16" si="4">(U9 - $Y$4   ) / $X$4</f>
         <v>21.854534005037785</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V16" s="25">
         <f t="shared" si="4"/>
         <v>21.797858942065492</v>
       </c>
-      <c r="W16" s="27">
+      <c r="W16" s="25">
         <f t="shared" si="4"/>
         <v>22.540931989924434</v>
       </c>
-      <c r="X16" s="27">
+      <c r="X16" s="25">
         <f t="shared" si="4"/>
         <v>22.383501259445843</v>
       </c>
-      <c r="Y16" s="27">
+      <c r="Y16" s="25">
         <f t="shared" si="4"/>
         <v>22.030856423173805</v>
       </c>
-      <c r="Z16" s="27"/>
+      <c r="Z16" s="25"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J17" s="27"/>
-      <c r="K17" s="27" t="s">
+      <c r="J17" s="25"/>
+      <c r="K17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="25">
         <f t="shared" si="2"/>
         <v>22.408496732026144</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="25">
         <f t="shared" si="3"/>
         <v>22.261633986928103</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="25">
         <f t="shared" si="3"/>
         <v>22.268169934640525</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O17" s="25">
         <f t="shared" si="3"/>
         <v>22.189738562091506</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="25">
         <f t="shared" si="3"/>
         <v>22.300849673202617</v>
       </c>
-      <c r="Q17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27" t="s">
+      <c r="Q17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="U17" s="27">
+      <c r="U17" s="25">
         <f t="shared" ref="U17:Y17" si="5">(U10 - $Y$4   ) / $X$4</f>
         <v>22.093828715365241</v>
       </c>
-      <c r="V17" s="27">
+      <c r="V17" s="25">
         <f t="shared" si="5"/>
         <v>21.778967254408059</v>
       </c>
-      <c r="W17" s="27">
+      <c r="W17" s="25">
         <f t="shared" si="5"/>
         <v>21.785264483627206</v>
       </c>
-      <c r="X17" s="27">
+      <c r="X17" s="25">
         <f t="shared" si="5"/>
         <v>21.709697732997483</v>
       </c>
-      <c r="Y17" s="27">
+      <c r="Y17" s="25">
         <f t="shared" si="5"/>
         <v>21.816750629722922</v>
       </c>
-      <c r="Z17" s="27"/>
+      <c r="Z17" s="25"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="27">
         <v>1</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="27">
         <v>2</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="27">
         <v>3</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="27">
         <v>4</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="27">
         <v>5</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="27">
         <v>6</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C20">
@@ -7662,85 +7664,85 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="C40" s="27">
+      <c r="A40" s="25"/>
+      <c r="C40" s="25">
         <v>0</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="C41" s="27">
+      <c r="A41" s="25"/>
+      <c r="C41" s="25">
         <v>0.1</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="25">
         <v>1.55E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="C42" s="27">
+      <c r="A42" s="25"/>
+      <c r="C42" s="25">
         <v>0.2</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="25">
         <v>0.01</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="C43" s="27">
+      <c r="A43" s="25"/>
+      <c r="C43" s="25">
         <v>0.4</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="25">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
-      <c r="C44" s="27">
+      <c r="A44" s="25"/>
+      <c r="C44" s="25">
         <v>1.6</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44" s="25">
         <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="C45" s="27">
+      <c r="A45" s="25"/>
+      <c r="C45" s="25">
         <v>3.2</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="25">
         <v>0.41849999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="C46" s="27">
+      <c r="A46" s="25"/>
+      <c r="C46" s="25">
         <v>6.4</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="25">
         <v>0.9365</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="C47" s="27">
+      <c r="A47" s="25"/>
+      <c r="C47" s="25">
         <v>12.8</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="25">
         <v>1.9530000000000001</v>
       </c>
     </row>
@@ -7785,19 +7787,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -7814,7 +7816,7 @@
       <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="32">
         <v>2.8683879093198996</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -7834,7 +7836,7 @@
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="32">
         <v>1.6782115869017633</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -7854,7 +7856,7 @@
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="32">
         <v>1.0107052896725444</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7874,7 +7876,7 @@
       <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="32">
         <v>0.87216624685138544</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -7894,7 +7896,7 @@
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>0.96032745591939561</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -7914,7 +7916,7 @@
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="32">
         <v>21.854534005037785</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -7934,7 +7936,7 @@
       <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>21.797858942065492</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -7954,7 +7956,7 @@
       <c r="C9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <v>22.540931989924434</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -7974,7 +7976,7 @@
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>22.383501259445843</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -7994,7 +7996,7 @@
       <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="32">
         <v>22.030856423173805</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -8014,7 +8016,7 @@
       <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <v>22.093828715365241</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -8034,7 +8036,7 @@
       <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="32">
         <v>21.778967254408059</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -8054,7 +8056,7 @@
       <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="32">
         <v>21.785264483627206</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -8074,7 +8076,7 @@
       <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="32">
         <v>21.709697732997483</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -8085,27 +8087,27 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="36">
         <v>5</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="37">
         <v>21.816750629722922</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="36" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="36">
+      <c r="A17" s="34">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -8125,7 +8127,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="36">
+      <c r="A18" s="34">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -8145,7 +8147,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="36">
+      <c r="A19" s="34">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -8165,7 +8167,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="36">
+      <c r="A20" s="34">
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -8185,7 +8187,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="36">
+      <c r="A21" s="34">
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -8205,7 +8207,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="36">
+      <c r="A22" s="34">
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -8225,7 +8227,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="36">
+      <c r="A23" s="34">
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -8245,7 +8247,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="36">
+      <c r="A24" s="34">
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -8265,7 +8267,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="36">
+      <c r="A25" s="34">
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -8285,7 +8287,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="36">
+      <c r="A26" s="34">
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -8305,7 +8307,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="36">
+      <c r="A27" s="34">
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -8325,7 +8327,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="36">
+      <c r="A28" s="34">
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -8345,7 +8347,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="36">
+      <c r="A29" s="34">
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -8365,7 +8367,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="36">
+      <c r="A30" s="34">
         <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -8385,22 +8387,22 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53">
+      <c r="A31" s="51">
         <v>5</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="52">
         <v>69</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="36" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8445,10 +8447,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="36">
+      <c r="A34" s="34">
         <v>3</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="56" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -8465,7 +8467,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="36">
+      <c r="A35" s="34">
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -8485,7 +8487,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="36">
+      <c r="A36" s="34">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -8545,7 +8547,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="36">
+      <c r="A39" s="34">
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -8565,7 +8567,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="36">
+      <c r="A40" s="34">
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -8585,7 +8587,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="36">
+      <c r="A41" s="34">
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -8645,7 +8647,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="36">
+      <c r="A44" s="34">
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -8665,7 +8667,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="36">
+      <c r="A45" s="34">
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -8685,7 +8687,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="36">
+      <c r="A46" s="34">
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -8724,17 +8726,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="82"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="1" t="s">
         <v>76</v>
       </c>
@@ -8870,15 +8872,15 @@
         <f t="shared" si="0"/>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="38">
         <v>0.12709999999999999</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="38">
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -8895,172 +8897,172 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="40">
         <v>0.14599999999999999</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="41">
         <f>(C13 - $H$10) / $G$10</f>
         <v>0.90165224232887486</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <f>D13</f>
         <v>0.90165224232887486</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="40">
         <v>0.13200000000000001</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="41">
         <f>(C14 - $H$10) / $G$10</f>
         <v>0.7915027537372149</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="41">
         <f t="shared" ref="E14:E21" si="1">D14</f>
         <v>0.7915027537372149</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="40">
         <v>0.26</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="41">
         <f>(C15 - $H$10) / $G$10</f>
         <v>1.798583792289536</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="41">
         <f t="shared" si="1"/>
         <v>1.798583792289536</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="42">
         <v>0.75</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="44">
         <v>0.3</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="45">
         <f t="shared" ref="D17:D26" si="2">(C17 - $H$10) / $G$10</f>
         <v>2.1132966168371361</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="45">
         <f t="shared" si="1"/>
         <v>2.1132966168371361</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="44">
         <v>0.34699999999999998</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="45">
         <f t="shared" si="2"/>
         <v>2.4830841856805668</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="45">
         <f t="shared" si="1"/>
         <v>2.4830841856805668</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="44">
         <v>0.60799999999999998</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="45">
         <f t="shared" si="2"/>
         <v>4.536585365853659</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="45">
         <f t="shared" si="1"/>
         <v>4.536585365853659</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="44">
         <v>0.221</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="45">
         <f t="shared" si="2"/>
         <v>1.4917387883556255</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="45">
         <f t="shared" si="1"/>
         <v>1.4917387883556255</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="46">
         <v>0.55600000000000005</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="47">
         <f t="shared" si="2"/>
         <v>4.1274586939417786</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="47">
         <f t="shared" si="1"/>
         <v>4.1274586939417786</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -9069,17 +9071,17 @@
       <c r="C22" s="3">
         <v>0.436</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="48">
         <f t="shared" si="2"/>
         <v>3.1833202202989774</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="48">
         <f>D22*10</f>
         <v>31.833202202989774</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -9088,17 +9090,17 @@
       <c r="C23" s="3">
         <v>0.59499999999999997</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="48">
         <f t="shared" si="2"/>
         <v>4.4343036978756887</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="48">
         <f t="shared" ref="E23:E26" si="3">D23*10</f>
         <v>44.343036978756885</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -9107,17 +9109,17 @@
       <c r="C24" s="3">
         <v>0.84899999999999998</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="48">
         <f t="shared" si="2"/>
         <v>6.4327301337529512</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="48">
         <f t="shared" si="3"/>
         <v>64.327301337529519</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -9126,17 +9128,17 @@
       <c r="C25" s="3">
         <v>0.106</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="48">
         <f t="shared" si="2"/>
         <v>0.58693941778127467</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="48">
         <f t="shared" si="3"/>
         <v>5.8693941778127465</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -9145,67 +9147,67 @@
       <c r="C26" s="3">
         <v>0.23</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="48">
         <f t="shared" si="2"/>
         <v>1.5625491738788357</v>
       </c>
-      <c r="E26" s="50">
+      <c r="E26" s="48">
         <f t="shared" si="3"/>
         <v>15.625491738788357</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52">
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50">
         <v>2.8683879093198996</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52">
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50">
         <v>1.6782115869017633</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52">
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50">
         <v>1.0107052896725444</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52">
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50">
         <v>0.87216624685138544</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50">
         <v>0.96032745591939561</v>
       </c>
     </row>
@@ -9231,929 +9233,929 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="59">
+      <c r="D1" s="57">
         <v>0</v>
       </c>
-      <c r="E1" s="59">
+      <c r="E1" s="57">
         <v>15</v>
       </c>
-      <c r="F1" s="59">
+      <c r="F1" s="57">
         <v>30</v>
       </c>
-      <c r="G1" s="59">
+      <c r="G1" s="57">
         <v>60</v>
       </c>
-      <c r="H1" s="59">
+      <c r="H1" s="57">
         <v>120</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="57" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="59">
+      <c r="A2" s="57">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57">
         <v>253</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="57">
         <v>219</v>
       </c>
-      <c r="F2" s="59">
+      <c r="F2" s="57">
         <v>200</v>
       </c>
-      <c r="G2" s="59">
+      <c r="G2" s="57">
         <v>143</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="57">
         <v>156</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="60">
+      <c r="J2" s="58">
         <f>AVERAGE(D2:E2) * 15 + AVERAGE(E2:F2) * 15 + AVERAGE(F2:G2) * 30 + AVERAGE(G2:H2) * 60</f>
         <v>20797.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="59">
+      <c r="A3" s="57">
         <v>2</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57">
         <v>312</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="57">
         <v>303</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="57">
         <v>278</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="57">
         <v>240</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="57">
         <v>199</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="58">
         <f t="shared" ref="J3:J29" si="0">AVERAGE(D3:E3) * 15 + AVERAGE(E3:F3) * 15 + AVERAGE(F3:G3) * 30 + AVERAGE(G3:H3) * 60</f>
         <v>29910</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="59">
+      <c r="A4" s="57">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57">
         <v>240</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="57">
         <v>308</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="57">
         <v>312</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="57">
         <v>229</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="57">
         <v>166</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="58">
         <f t="shared" si="0"/>
         <v>28725</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="59">
+      <c r="A5" s="57">
         <v>4</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57">
         <v>288</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="57">
         <v>194</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="57">
         <v>154</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="57">
         <v>113</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="57">
         <v>124</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="60">
+      <c r="J5" s="58">
         <f t="shared" si="0"/>
         <v>17340</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="59">
+      <c r="A6" s="57">
         <v>5</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57">
         <v>203</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="57">
         <v>198</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="57">
         <v>161</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="57">
         <v>147</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="57">
         <v>163</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="58">
         <f t="shared" si="0"/>
         <v>19620</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="59">
+      <c r="A7" s="57">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
         <v>226</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="57">
         <v>210</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="57">
         <v>187</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="57">
         <v>170</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="57">
         <v>181</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="60">
+      <c r="J7" s="58">
         <f t="shared" si="0"/>
         <v>22132.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="59">
+      <c r="A8" s="57">
         <v>7</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57">
         <v>251</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="57">
         <v>226</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="57">
         <v>211</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="57">
         <v>200</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="57">
         <v>168</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="58">
         <f t="shared" si="0"/>
         <v>24060</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="59">
+      <c r="A9" s="57">
         <v>8</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57">
         <v>244</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="57">
         <v>217</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="57">
         <v>175</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="57">
         <v>177</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="57">
         <v>189</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="58">
         <f t="shared" si="0"/>
         <v>22657.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="59">
+      <c r="A10" s="57">
         <v>9</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57">
         <v>253</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="57">
         <v>197</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="57">
         <v>150</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="57">
         <v>121</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="57">
         <v>165</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="58">
         <f t="shared" si="0"/>
         <v>18622.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="59">
+      <c r="A11" s="57">
         <v>10</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57">
         <v>231</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="57">
         <v>182</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="57">
         <v>171</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="57">
         <v>163</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="57">
         <v>178</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="58">
         <f t="shared" si="0"/>
         <v>20985</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="59">
+      <c r="A12" s="57">
         <v>11</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57">
         <v>114</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="57">
         <v>102</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="57">
         <v>98</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="57">
         <v>89</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="57">
         <v>75</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="58">
         <f t="shared" si="0"/>
         <v>10845</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="59">
+      <c r="A13" s="57">
         <v>12</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57">
         <v>169</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="57">
         <v>125</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="57">
         <v>104</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="57">
         <v>72</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="57">
         <v>77</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="58">
         <f t="shared" si="0"/>
         <v>11032.5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="59">
+      <c r="A14" s="57">
         <v>13</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57">
         <v>148</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="57">
         <v>122</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="57">
         <v>99</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="57">
         <v>81</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="57">
         <v>77</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="58">
         <f t="shared" si="0"/>
         <v>11122.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="59">
+      <c r="A15" s="57">
         <v>14</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57">
         <v>240</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="57">
         <v>147</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="57">
         <v>94</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="57">
         <v>60</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="57">
         <v>76</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="58">
         <f t="shared" si="0"/>
         <v>11100</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="59">
+      <c r="A16" s="57">
         <v>1</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="57">
         <v>59</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="57">
         <v>248</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="57">
         <v>421</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="57">
         <v>433</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="57">
         <v>322</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="57">
         <v>188</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="60">
+      <c r="J16" s="58">
         <f t="shared" si="0"/>
         <v>38047.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="59">
+      <c r="A17" s="57">
         <v>2</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="57">
         <v>59</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="57">
         <v>279</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="57">
         <v>475</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="57">
         <v>533</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="57">
         <v>458</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="57">
         <v>226</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="58">
         <f t="shared" si="0"/>
         <v>48600</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="59">
+      <c r="A18" s="57">
         <v>3</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="57">
         <v>54.6</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="57">
         <v>265</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="57">
         <v>358</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="57">
         <v>404</v>
       </c>
-      <c r="G18" s="59">
+      <c r="G18" s="57">
         <v>391</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="57">
         <v>249</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="58">
         <f t="shared" si="0"/>
         <v>41512.5</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="59">
+      <c r="A19" s="57">
         <v>4</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="57">
         <v>62.7</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="57">
         <v>340</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="57">
         <v>556</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="59">
         <v>600</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="59">
         <v>600</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="57">
         <v>437</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="58">
         <f t="shared" si="0"/>
         <v>64500</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="59">
+      <c r="A20" s="57">
         <v>5</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="59">
+      <c r="C20" s="57">
         <v>44.5</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="57">
         <v>200</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="57">
         <v>302</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="57">
         <v>394</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G20" s="57">
         <v>384</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="57">
         <v>285</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="58">
         <f t="shared" si="0"/>
         <v>40725</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="59">
+      <c r="A21" s="57">
         <v>6</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="57">
         <v>44.3</v>
       </c>
-      <c r="D21" s="59">
+      <c r="D21" s="57">
         <v>192</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="57">
         <v>274</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="57">
         <v>324</v>
       </c>
-      <c r="G21" s="59">
+      <c r="G21" s="57">
         <v>278</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="57">
         <v>195</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="58">
         <f t="shared" si="0"/>
         <v>31200</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="59">
+      <c r="A22" s="57">
         <v>7</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="57">
         <v>42.2</v>
       </c>
-      <c r="D22" s="59">
+      <c r="D22" s="57">
         <v>206</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="57">
         <v>360</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="57">
         <v>409</v>
       </c>
-      <c r="G22" s="59">
+      <c r="G22" s="57">
         <v>410</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="57">
         <v>299</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="58">
         <f t="shared" si="0"/>
         <v>43567.5</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="59">
+      <c r="A23" s="57">
         <v>8</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="57">
         <v>47</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="57">
         <v>219</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="57">
         <v>332</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="57">
         <v>457</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="57">
         <v>425</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="57">
         <v>333</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J23" s="60">
+      <c r="J23" s="58">
         <f t="shared" si="0"/>
         <v>46020</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="59">
+      <c r="A24" s="57">
         <v>9</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="57">
         <v>47.5</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="57">
         <v>197</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="57">
         <v>274</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="57">
         <v>331</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="57">
         <v>333</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="57">
         <v>289</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J24" s="60">
+      <c r="J24" s="58">
         <f t="shared" si="0"/>
         <v>36690</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="59">
+      <c r="A25" s="57">
         <v>10</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C25" s="57">
         <v>45</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="57">
         <v>196</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="57">
         <v>290</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="57">
         <v>369</v>
       </c>
-      <c r="G25" s="59">
+      <c r="G25" s="57">
         <v>350</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="57">
         <v>232</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J25" s="58">
         <f t="shared" si="0"/>
         <v>36832.5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="59">
+      <c r="A26" s="57">
         <v>11</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="57">
         <v>30</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="57">
         <v>126</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="57">
         <v>233</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="57">
         <v>218</v>
       </c>
-      <c r="G26" s="59">
+      <c r="G26" s="57">
         <v>188</v>
       </c>
-      <c r="H26" s="59">
+      <c r="H26" s="57">
         <v>138</v>
       </c>
-      <c r="I26" s="59" t="s">
+      <c r="I26" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="58">
         <f t="shared" si="0"/>
         <v>21945</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="59">
+      <c r="A27" s="57">
         <v>12</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="57">
         <v>31.2</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="57">
         <v>92</v>
       </c>
-      <c r="E27" s="59">
+      <c r="E27" s="57">
         <v>207</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="57">
         <v>196</v>
       </c>
-      <c r="G27" s="59">
+      <c r="G27" s="57">
         <v>151</v>
       </c>
-      <c r="H27" s="59">
+      <c r="H27" s="57">
         <v>100</v>
       </c>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="58">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="59">
+      <c r="A28" s="57">
         <v>13</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="57">
         <v>32.700000000000003</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="57">
         <v>117</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="57">
         <v>222</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="57">
         <v>234</v>
       </c>
-      <c r="G28" s="59">
+      <c r="G28" s="57">
         <v>200</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="57">
         <v>159</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J28" s="60">
+      <c r="J28" s="58">
         <f t="shared" si="0"/>
         <v>23242.5</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="59">
+      <c r="A29" s="57">
         <v>14</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="59">
+      <c r="C29" s="57">
         <v>28.6</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="57">
         <v>165</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="57">
         <v>277</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="57">
         <v>323</v>
       </c>
-      <c r="G29" s="59">
+      <c r="G29" s="57">
         <v>250</v>
       </c>
-      <c r="H29" s="59">
+      <c r="H29" s="57">
         <v>157</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J29" s="60">
+      <c r="J29" s="58">
         <f t="shared" si="0"/>
         <v>28620</v>
       </c>
@@ -10167,7 +10169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB13E34F-5EA2-0040-9C53-E33004233BBB}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+    <sheetView zoomScale="190" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -10180,1136 +10182,1136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="61" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="86">
+      <c r="B2" s="62">
         <v>1.712091142</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="86">
+      <c r="B3" s="62">
         <v>0.92612604300000001</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="86">
+      <c r="B4" s="62">
         <v>2.3270308059999998</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="62">
         <v>1.4363874679999999</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="86">
+      <c r="B6" s="62">
         <v>0.56855173400000003</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="62">
         <v>0.61064726899999999</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="86">
+      <c r="B8" s="62">
         <v>0.331960851</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="86">
+      <c r="B9" s="62">
         <v>0.41904282500000001</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="62">
         <v>0.66816186300000002</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="86">
+      <c r="B11" s="62">
         <v>2.5141879519999999</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="62">
         <v>0.722984399</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="86">
+      <c r="B13" s="62">
         <v>1.0115460439999999</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="86">
+      <c r="B14" s="62">
         <v>3.602742337</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B15" s="62">
         <v>0.36853598300000001</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="86">
+      <c r="B16" s="62">
         <v>1.2305247699999999</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="86">
+      <c r="B17" s="62">
         <v>0.52555707600000001</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="86">
+      <c r="B18" s="62">
         <v>0.50605426499999995</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="86">
+      <c r="B19" s="62">
         <v>0.48742650100000001</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="86">
+      <c r="B20" s="62">
         <v>0.33992632900000003</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="86">
+      <c r="B21" s="62">
         <v>2.950730251</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="86">
+      <c r="B22" s="62">
         <v>1.4381825130000001</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="86">
+      <c r="B23" s="62">
         <v>2.2786294370000002</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="86">
+      <c r="B24" s="62">
         <v>3.9894042320000001</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="86">
+      <c r="B25" s="62">
         <v>0.72036074900000002</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="86">
+      <c r="B26" s="62">
         <v>1.91</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="86">
+      <c r="B27" s="62">
         <v>0.93</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="86">
+      <c r="B28" s="62">
         <v>2.98</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="86">
+      <c r="B29" s="62">
         <v>1.39</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="86">
+      <c r="B30" s="62">
         <v>0.48</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="86">
+      <c r="B31" s="62">
         <v>0.39</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="86">
+      <c r="B32" s="62">
         <v>0.22</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="86">
+      <c r="B33" s="62">
         <v>0.23</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="85" t="s">
+      <c r="D33" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="86">
+      <c r="B34" s="62">
         <v>0.48</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="86">
+      <c r="B35" s="62">
         <v>5.35</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="86">
+      <c r="B36" s="62">
         <v>2.0699999999999998</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="85" t="s">
+      <c r="D36" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="86">
+      <c r="B37" s="62">
         <v>2.88</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="86">
+      <c r="B38" s="62">
         <v>8.02</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="86">
+      <c r="B39" s="62">
         <v>2.12</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="86">
+      <c r="B40" s="62">
         <v>3.21</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C40" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="85" t="s">
+      <c r="D40" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="86">
+      <c r="B41" s="62">
         <v>1.76</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C41" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="86">
+      <c r="B42" s="62">
         <v>1.62</v>
       </c>
-      <c r="C42" s="84" t="s">
+      <c r="C42" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="85" t="s">
+      <c r="D42" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="86">
+      <c r="B43" s="62">
         <v>1.41</v>
       </c>
-      <c r="C43" s="84" t="s">
+      <c r="C43" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="85" t="s">
+      <c r="D43" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="86">
+      <c r="B44" s="62">
         <v>1.75</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="85" t="s">
+      <c r="D44" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="86">
+      <c r="B45" s="62">
         <v>13.07</v>
       </c>
-      <c r="C45" s="84" t="s">
+      <c r="C45" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="85" t="s">
+      <c r="D45" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="86">
+      <c r="B46" s="62">
         <v>5.41</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="85" t="s">
+      <c r="D46" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="86">
+      <c r="B47" s="62">
         <v>8.48</v>
       </c>
-      <c r="C47" s="84" t="s">
+      <c r="C47" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="85" t="s">
+      <c r="D47" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="86">
+      <c r="B48" s="62">
         <v>15.86</v>
       </c>
-      <c r="C48" s="84" t="s">
+      <c r="C48" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="85" t="s">
+      <c r="D48" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="86">
+      <c r="B49" s="62">
         <v>2.96</v>
       </c>
-      <c r="C49" s="84" t="s">
+      <c r="C49" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="85" t="s">
+      <c r="D49" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="86">
+      <c r="B50" s="62">
         <v>1.17</v>
       </c>
-      <c r="C50" s="84" t="s">
+      <c r="C50" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="85" t="s">
+      <c r="D50" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="86">
+      <c r="B51" s="62">
         <v>1.46</v>
       </c>
-      <c r="C51" s="84" t="s">
+      <c r="C51" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="85" t="s">
+      <c r="D51" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="84" t="s">
+      <c r="A52" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="86">
+      <c r="B52" s="62">
         <v>0.62</v>
       </c>
-      <c r="C52" s="84" t="s">
+      <c r="C52" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="85" t="s">
+      <c r="D52" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="86">
+      <c r="B53" s="62">
         <v>0.89</v>
       </c>
-      <c r="C53" s="84" t="s">
+      <c r="C53" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="85" t="s">
+      <c r="D53" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="84" t="s">
+      <c r="A54" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="86">
+      <c r="B54" s="62">
         <v>0.86</v>
       </c>
-      <c r="C54" s="84" t="s">
+      <c r="C54" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="85" t="s">
+      <c r="D54" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="84" t="s">
+      <c r="A55" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="86">
+      <c r="B55" s="62">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C55" s="84" t="s">
+      <c r="C55" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="85" t="s">
+      <c r="D55" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="84" t="s">
+      <c r="A56" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="86">
+      <c r="B56" s="62">
         <v>1.4</v>
       </c>
-      <c r="C56" s="84" t="s">
+      <c r="C56" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="85" t="s">
+      <c r="D56" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="84" t="s">
+      <c r="A57" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="86">
+      <c r="B57" s="62">
         <v>0.8</v>
       </c>
-      <c r="C57" s="84" t="s">
+      <c r="C57" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="85" t="s">
+      <c r="D57" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="86">
+      <c r="B58" s="62">
         <v>0.98</v>
       </c>
-      <c r="C58" s="84" t="s">
+      <c r="C58" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="85" t="s">
+      <c r="D58" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="84" t="s">
+      <c r="A59" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="86">
+      <c r="B59" s="62">
         <v>0.98</v>
       </c>
-      <c r="C59" s="84" t="s">
+      <c r="C59" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="85" t="s">
+      <c r="D59" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="86">
+      <c r="B60" s="62">
         <v>0.51</v>
       </c>
-      <c r="C60" s="84" t="s">
+      <c r="C60" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="85" t="s">
+      <c r="D60" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="86">
+      <c r="B61" s="62">
         <v>1.81</v>
       </c>
-      <c r="C61" s="84" t="s">
+      <c r="C61" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="85" t="s">
+      <c r="D61" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="84" t="s">
+      <c r="A62" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B62" s="86">
+      <c r="B62" s="62">
         <v>1.43</v>
       </c>
-      <c r="C62" s="84" t="s">
+      <c r="C62" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="85" t="s">
+      <c r="D62" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="84" t="s">
+      <c r="A63" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="86">
+      <c r="B63" s="62">
         <v>1.42</v>
       </c>
-      <c r="C63" s="84" t="s">
+      <c r="C63" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="85" t="s">
+      <c r="D63" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="84" t="s">
+      <c r="A64" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="86">
+      <c r="B64" s="62">
         <v>3.22</v>
       </c>
-      <c r="C64" s="84" t="s">
+      <c r="C64" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="85" t="s">
+      <c r="D64" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="84" t="s">
+      <c r="A65" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="86">
+      <c r="B65" s="62">
         <v>2.2599999999999998</v>
       </c>
-      <c r="C65" s="84" t="s">
+      <c r="C65" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="85" t="s">
+      <c r="D65" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="84" t="s">
+      <c r="A66" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="86">
+      <c r="B66" s="62">
         <v>1.43</v>
       </c>
-      <c r="C66" s="84" t="s">
+      <c r="C66" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="85" t="s">
+      <c r="D66" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="84" t="s">
+      <c r="A67" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="86">
+      <c r="B67" s="62">
         <v>1.35</v>
       </c>
-      <c r="C67" s="84" t="s">
+      <c r="C67" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="85" t="s">
+      <c r="D67" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="86">
+      <c r="B68" s="62">
         <v>0.59</v>
       </c>
-      <c r="C68" s="84" t="s">
+      <c r="C68" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D68" s="85" t="s">
+      <c r="D68" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="84" t="s">
+      <c r="A69" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="86">
+      <c r="B69" s="62">
         <v>0.71</v>
       </c>
-      <c r="C69" s="84" t="s">
+      <c r="C69" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D69" s="85" t="s">
+      <c r="D69" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="84" t="s">
+      <c r="A70" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="86">
+      <c r="B70" s="62">
         <v>0.91</v>
       </c>
-      <c r="C70" s="84" t="s">
+      <c r="C70" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D70" s="85" t="s">
+      <c r="D70" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="84" t="s">
+      <c r="A71" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="86">
+      <c r="B71" s="62">
         <v>4.74</v>
       </c>
-      <c r="C71" s="84" t="s">
+      <c r="C71" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="85" t="s">
+      <c r="D71" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="84" t="s">
+      <c r="A72" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B72" s="86">
+      <c r="B72" s="62">
         <v>5.34</v>
       </c>
-      <c r="C72" s="84" t="s">
+      <c r="C72" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="85" t="s">
+      <c r="D72" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="86">
+      <c r="B73" s="62">
         <v>3.92</v>
       </c>
-      <c r="C73" s="84" t="s">
+      <c r="C73" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="85" t="s">
+      <c r="D73" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="84" t="s">
+      <c r="A74" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B74" s="86">
+      <c r="B74" s="62">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C74" s="84" t="s">
+      <c r="C74" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="85" t="s">
+      <c r="D74" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="84" t="s">
+      <c r="A75" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="86">
+      <c r="B75" s="62">
         <v>4.1399999999999997</v>
       </c>
-      <c r="C75" s="84" t="s">
+      <c r="C75" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D75" s="85" t="s">
+      <c r="D75" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="84" t="s">
+      <c r="A76" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="86">
+      <c r="B76" s="62">
         <v>3.85</v>
       </c>
-      <c r="C76" s="84" t="s">
+      <c r="C76" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="85" t="s">
+      <c r="D76" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="84" t="s">
+      <c r="A77" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B77" s="86">
+      <c r="B77" s="62">
         <v>11.71</v>
       </c>
-      <c r="C77" s="84" t="s">
+      <c r="C77" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="85" t="s">
+      <c r="D77" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="84" t="s">
+      <c r="A78" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B78" s="86">
+      <c r="B78" s="62">
         <v>7.89</v>
       </c>
-      <c r="C78" s="84" t="s">
+      <c r="C78" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D78" s="85" t="s">
+      <c r="D78" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="84" t="s">
+      <c r="A79" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="86">
+      <c r="B79" s="62">
         <v>7.74</v>
       </c>
-      <c r="C79" s="84" t="s">
+      <c r="C79" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="85" t="s">
+      <c r="D79" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="84" t="s">
+      <c r="A80" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B80" s="86">
+      <c r="B80" s="62">
         <v>18.73</v>
       </c>
-      <c r="C80" s="84" t="s">
+      <c r="C80" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="85" t="s">
+      <c r="D80" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="84" t="s">
+      <c r="A81" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B81" s="86">
+      <c r="B81" s="62">
         <v>13.57</v>
       </c>
-      <c r="C81" s="84" t="s">
+      <c r="C81" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D81" s="85" t="s">
+      <c r="D81" s="61" t="s">
         <v>123</v>
       </c>
     </row>
